--- a/summary/summary_dafav2.xlsx
+++ b/summary/summary_dafav2.xlsx
@@ -76,754 +76,754 @@
     <t>dafav2</t>
   </si>
   <si>
-    <t>2023-03-07 13:55:35 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 13:58:38 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 14:01:41 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 14:04:44 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 14:07:47 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 14:10:50 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 14:13:53 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 14:16:56 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 14:19:59 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 14:23:02 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 14:26:05 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 14:29:08 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 14:32:12 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 14:35:15 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 14:38:18 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 14:41:21 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 14:44:24 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 14:47:27 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 14:50:30 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 14:53:33 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 14:56:36 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 14:59:39 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 15:02:43 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 15:05:46 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 15:08:49 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 15:11:52 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 15:14:55 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 15:17:58 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 15:21:01 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 15:24:04 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 15:27:07 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 15:30:10 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 15:33:13 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 15:36:16 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 15:39:19 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 15:42:22 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 15:45:25 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 15:48:28 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 15:51:31 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 15:54:34 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 15:57:36 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 16:00:39 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 16:13:42 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 16:16:45 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 16:19:48 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 16:32:51 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 16:35:54 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 16:38:57 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 16:52:00 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 16:55:03 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 16:58:06 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 17:01:09 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 17:04:12 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 17:07:15 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 17:10:18 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 17:13:21 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 17:16:24 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 17:19:27 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 17:22:30 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 17:25:33 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 17:28:36 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 17:31:39 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 17:34:42 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 17:37:45 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 17:40:48 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 17:43:51 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 17:46:54 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 17:49:57 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 17:52:18 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 17:55:21 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 17:58:24 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 18:01:27 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 18:04:30 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 18:07:33 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 18:10:36 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 18:13:39 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 18:16:42 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 18:19:45 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 18:22:48 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 18:25:51 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 18:28:54 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 18:31:57 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 18:45:00 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 18:48:03 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 18:51:06 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 18:54:09 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 18:57:12 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 19:00:15 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 19:03:18 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 19:06:21 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 19:09:24 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 19:12:27 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 19:15:30 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 19:18:33 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 19:21:36 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 19:24:39 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 19:27:42 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 19:30:46 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 19:33:49 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 19:36:52 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 19:39:55 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 19:42:58 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 19:46:01 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 19:49:04 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 20:02:07 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 20:05:10 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 20:08:13 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 20:11:16 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 20:14:19 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 20:17:22 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 20:20:25 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 20:23:28 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 20:26:31 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 20:29:34 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 20:32:37 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 20:35:40 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 20:38:43 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 20:41:46 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 20:44:49 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 20:47:52 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 20:50:55 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 20:53:58 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 20:57:01 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 21:00:04 WIB</t>
-  </si>
-  <si>
-    <t>2023-03-07 21:03:07 WIB</t>
-  </si>
-  <si>
-    <t>1678172135</t>
-  </si>
-  <si>
-    <t>1678172318</t>
-  </si>
-  <si>
-    <t>1678172501</t>
-  </si>
-  <si>
-    <t>1678172684</t>
-  </si>
-  <si>
-    <t>1678172867</t>
-  </si>
-  <si>
-    <t>1678173050</t>
-  </si>
-  <si>
-    <t>1678173233</t>
-  </si>
-  <si>
-    <t>1678173416</t>
-  </si>
-  <si>
-    <t>1678173599</t>
-  </si>
-  <si>
-    <t>1678173782</t>
-  </si>
-  <si>
-    <t>1678173965</t>
-  </si>
-  <si>
-    <t>1678174148</t>
-  </si>
-  <si>
-    <t>1678174332</t>
-  </si>
-  <si>
-    <t>1678174515</t>
-  </si>
-  <si>
-    <t>1678174698</t>
-  </si>
-  <si>
-    <t>1678174881</t>
-  </si>
-  <si>
-    <t>1678175064</t>
-  </si>
-  <si>
-    <t>1678175247</t>
-  </si>
-  <si>
-    <t>1678175430</t>
-  </si>
-  <si>
-    <t>1678175613</t>
-  </si>
-  <si>
-    <t>1678175796</t>
-  </si>
-  <si>
-    <t>1678175979</t>
-  </si>
-  <si>
-    <t>1678176163</t>
-  </si>
-  <si>
-    <t>1678176346</t>
-  </si>
-  <si>
-    <t>1678176529</t>
-  </si>
-  <si>
-    <t>1678176712</t>
-  </si>
-  <si>
-    <t>1678176895</t>
-  </si>
-  <si>
-    <t>1678177078</t>
-  </si>
-  <si>
-    <t>1678177261</t>
-  </si>
-  <si>
-    <t>1678177444</t>
-  </si>
-  <si>
-    <t>1678177627</t>
-  </si>
-  <si>
-    <t>1678177810</t>
-  </si>
-  <si>
-    <t>1678177993</t>
-  </si>
-  <si>
-    <t>1678178176</t>
-  </si>
-  <si>
-    <t>1678178359</t>
-  </si>
-  <si>
-    <t>1678178542</t>
-  </si>
-  <si>
-    <t>1678178725</t>
-  </si>
-  <si>
-    <t>1678178908</t>
-  </si>
-  <si>
-    <t>1678179091</t>
-  </si>
-  <si>
-    <t>1678179274</t>
-  </si>
-  <si>
-    <t>1678179456</t>
-  </si>
-  <si>
-    <t>1678179639</t>
-  </si>
-  <si>
-    <t>1678180422</t>
-  </si>
-  <si>
-    <t>1678180605</t>
-  </si>
-  <si>
-    <t>1678180788</t>
-  </si>
-  <si>
-    <t>1678181571</t>
-  </si>
-  <si>
-    <t>1678181754</t>
-  </si>
-  <si>
-    <t>1678181937</t>
-  </si>
-  <si>
-    <t>1678182720</t>
-  </si>
-  <si>
-    <t>1678182903</t>
-  </si>
-  <si>
-    <t>1678183086</t>
-  </si>
-  <si>
-    <t>1678183269</t>
-  </si>
-  <si>
-    <t>1678183452</t>
-  </si>
-  <si>
-    <t>1678183635</t>
-  </si>
-  <si>
-    <t>1678183818</t>
-  </si>
-  <si>
-    <t>1678184001</t>
-  </si>
-  <si>
-    <t>1678184184</t>
-  </si>
-  <si>
-    <t>1678184367</t>
-  </si>
-  <si>
-    <t>1678184550</t>
-  </si>
-  <si>
-    <t>1678184733</t>
-  </si>
-  <si>
-    <t>1678184916</t>
-  </si>
-  <si>
-    <t>1678185099</t>
-  </si>
-  <si>
-    <t>1678185282</t>
-  </si>
-  <si>
-    <t>1678185465</t>
-  </si>
-  <si>
-    <t>1678185648</t>
-  </si>
-  <si>
-    <t>1678185831</t>
-  </si>
-  <si>
-    <t>1678186014</t>
-  </si>
-  <si>
-    <t>1678186197</t>
-  </si>
-  <si>
-    <t>1678186338</t>
-  </si>
-  <si>
-    <t>1678186521</t>
-  </si>
-  <si>
-    <t>1678186704</t>
-  </si>
-  <si>
-    <t>1678186887</t>
-  </si>
-  <si>
-    <t>1678187070</t>
-  </si>
-  <si>
-    <t>1678187253</t>
-  </si>
-  <si>
-    <t>1678187436</t>
-  </si>
-  <si>
-    <t>1678187619</t>
-  </si>
-  <si>
-    <t>1678187802</t>
-  </si>
-  <si>
-    <t>1678187985</t>
-  </si>
-  <si>
-    <t>1678188168</t>
-  </si>
-  <si>
-    <t>1678188351</t>
-  </si>
-  <si>
-    <t>1678188534</t>
-  </si>
-  <si>
-    <t>1678188717</t>
-  </si>
-  <si>
-    <t>1678189500</t>
-  </si>
-  <si>
-    <t>1678189683</t>
-  </si>
-  <si>
-    <t>1678189866</t>
-  </si>
-  <si>
-    <t>1678190049</t>
-  </si>
-  <si>
-    <t>1678190232</t>
-  </si>
-  <si>
-    <t>1678190415</t>
-  </si>
-  <si>
-    <t>1678190598</t>
-  </si>
-  <si>
-    <t>1678190781</t>
-  </si>
-  <si>
-    <t>1678190964</t>
-  </si>
-  <si>
-    <t>1678191147</t>
-  </si>
-  <si>
-    <t>1678191330</t>
-  </si>
-  <si>
-    <t>1678191513</t>
-  </si>
-  <si>
-    <t>1678191696</t>
-  </si>
-  <si>
-    <t>1678191879</t>
-  </si>
-  <si>
-    <t>1678192062</t>
-  </si>
-  <si>
-    <t>1678192246</t>
-  </si>
-  <si>
-    <t>1678192429</t>
-  </si>
-  <si>
-    <t>1678192612</t>
-  </si>
-  <si>
-    <t>1678192795</t>
-  </si>
-  <si>
-    <t>1678192978</t>
-  </si>
-  <si>
-    <t>1678193161</t>
-  </si>
-  <si>
-    <t>1678193344</t>
-  </si>
-  <si>
-    <t>1678194127</t>
-  </si>
-  <si>
-    <t>1678194310</t>
-  </si>
-  <si>
-    <t>1678194493</t>
-  </si>
-  <si>
-    <t>1678194676</t>
-  </si>
-  <si>
-    <t>1678194859</t>
-  </si>
-  <si>
-    <t>1678195042</t>
-  </si>
-  <si>
-    <t>1678195225</t>
-  </si>
-  <si>
-    <t>1678195408</t>
-  </si>
-  <si>
-    <t>1678195591</t>
-  </si>
-  <si>
-    <t>1678195774</t>
-  </si>
-  <si>
-    <t>1678195957</t>
-  </si>
-  <si>
-    <t>1678196140</t>
-  </si>
-  <si>
-    <t>1678196323</t>
-  </si>
-  <si>
-    <t>1678196506</t>
-  </si>
-  <si>
-    <t>1678196689</t>
-  </si>
-  <si>
-    <t>1678196872</t>
-  </si>
-  <si>
-    <t>1678197055</t>
-  </si>
-  <si>
-    <t>1678197238</t>
-  </si>
-  <si>
-    <t>1678197421</t>
-  </si>
-  <si>
-    <t>1678197604</t>
-  </si>
-  <si>
-    <t>1678197787</t>
+    <t>2023-03-25 14:28:37 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 14:30:10 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 14:31:43 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 14:33:15 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 14:34:48 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 14:36:21 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 14:37:54 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 14:39:27 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 14:41:00 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 14:42:33 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 14:44:06 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 14:45:39 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 14:47:12 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 14:48:45 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 14:50:18 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 14:51:51 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 14:53:24 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 14:54:57 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 14:56:30 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 14:58:03 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 14:59:36 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 15:01:09 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 15:02:42 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 15:04:15 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 15:05:48 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 15:07:21 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 15:08:54 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 15:10:27 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 15:12:00 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 15:13:33 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 15:15:06 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 15:26:39 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 15:28:12 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 15:29:45 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 15:31:18 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 15:32:51 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 15:34:24 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 15:45:57 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 16:07:30 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 16:09:03 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 16:10:36 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 16:22:09 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 16:43:42 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 16:55:15 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 16:56:48 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 17:08:21 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 17:09:54 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 17:21:27 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 17:23:00 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 17:54:33 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 17:56:06 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 17:57:39 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 17:59:12 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 18:00:45 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 18:02:18 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 18:03:51 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 18:05:24 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 18:06:57 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 18:08:30 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 18:10:03 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 18:11:36 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 18:13:09 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 18:14:42 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 18:16:15 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 18:17:48 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 18:19:21 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 18:40:54 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 18:42:27 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 18:44:00 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 18:45:33 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 18:47:06 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 18:48:39 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 18:50:12 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 19:01:45 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 19:23:18 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 19:24:51 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 19:26:24 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 19:27:57 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 19:29:30 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 19:31:03 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 19:32:36 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 19:34:09 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 19:35:42 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 19:37:15 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 19:38:48 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 19:40:21 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 19:41:54 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 19:43:27 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 19:45:00 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 19:46:33 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 19:48:06 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 19:49:39 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 19:51:12 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 19:52:45 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 19:54:18 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 19:55:51 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 19:57:24 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 19:58:57 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 20:00:30 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 20:32:03 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 20:53:36 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 20:55:09 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 20:56:42 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 20:58:15 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 21:09:48 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 21:11:21 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 21:12:54 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 21:14:27 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 21:16:00 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 21:17:33 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 21:29:07 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 21:40:41 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 21:42:14 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 21:43:47 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 21:45:20 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 22:06:53 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 22:08:26 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 22:09:59 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 22:11:32 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 22:13:05 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 22:14:38 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 22:26:11 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 22:37:45 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 22:39:18 WIB</t>
+  </si>
+  <si>
+    <t>2023-03-25 22:40:51 WIB</t>
+  </si>
+  <si>
+    <t>1679729317</t>
+  </si>
+  <si>
+    <t>1679729410</t>
+  </si>
+  <si>
+    <t>1679729503</t>
+  </si>
+  <si>
+    <t>1679729595</t>
+  </si>
+  <si>
+    <t>1679729688</t>
+  </si>
+  <si>
+    <t>1679729781</t>
+  </si>
+  <si>
+    <t>1679729874</t>
+  </si>
+  <si>
+    <t>1679729967</t>
+  </si>
+  <si>
+    <t>1679730060</t>
+  </si>
+  <si>
+    <t>1679730153</t>
+  </si>
+  <si>
+    <t>1679730246</t>
+  </si>
+  <si>
+    <t>1679730339</t>
+  </si>
+  <si>
+    <t>1679730432</t>
+  </si>
+  <si>
+    <t>1679730525</t>
+  </si>
+  <si>
+    <t>1679730618</t>
+  </si>
+  <si>
+    <t>1679730711</t>
+  </si>
+  <si>
+    <t>1679730804</t>
+  </si>
+  <si>
+    <t>1679730897</t>
+  </si>
+  <si>
+    <t>1679730990</t>
+  </si>
+  <si>
+    <t>1679731083</t>
+  </si>
+  <si>
+    <t>1679731176</t>
+  </si>
+  <si>
+    <t>1679731269</t>
+  </si>
+  <si>
+    <t>1679731362</t>
+  </si>
+  <si>
+    <t>1679731455</t>
+  </si>
+  <si>
+    <t>1679731548</t>
+  </si>
+  <si>
+    <t>1679731641</t>
+  </si>
+  <si>
+    <t>1679731734</t>
+  </si>
+  <si>
+    <t>1679731827</t>
+  </si>
+  <si>
+    <t>1679731920</t>
+  </si>
+  <si>
+    <t>1679732013</t>
+  </si>
+  <si>
+    <t>1679732106</t>
+  </si>
+  <si>
+    <t>1679732799</t>
+  </si>
+  <si>
+    <t>1679732892</t>
+  </si>
+  <si>
+    <t>1679732985</t>
+  </si>
+  <si>
+    <t>1679733078</t>
+  </si>
+  <si>
+    <t>1679733171</t>
+  </si>
+  <si>
+    <t>1679733264</t>
+  </si>
+  <si>
+    <t>1679733957</t>
+  </si>
+  <si>
+    <t>1679735250</t>
+  </si>
+  <si>
+    <t>1679735343</t>
+  </si>
+  <si>
+    <t>1679735436</t>
+  </si>
+  <si>
+    <t>1679736129</t>
+  </si>
+  <si>
+    <t>1679737422</t>
+  </si>
+  <si>
+    <t>1679738115</t>
+  </si>
+  <si>
+    <t>1679738208</t>
+  </si>
+  <si>
+    <t>1679738901</t>
+  </si>
+  <si>
+    <t>1679738994</t>
+  </si>
+  <si>
+    <t>1679739687</t>
+  </si>
+  <si>
+    <t>1679739780</t>
+  </si>
+  <si>
+    <t>1679741673</t>
+  </si>
+  <si>
+    <t>1679741766</t>
+  </si>
+  <si>
+    <t>1679741859</t>
+  </si>
+  <si>
+    <t>1679741952</t>
+  </si>
+  <si>
+    <t>1679742045</t>
+  </si>
+  <si>
+    <t>1679742138</t>
+  </si>
+  <si>
+    <t>1679742231</t>
+  </si>
+  <si>
+    <t>1679742324</t>
+  </si>
+  <si>
+    <t>1679742417</t>
+  </si>
+  <si>
+    <t>1679742510</t>
+  </si>
+  <si>
+    <t>1679742603</t>
+  </si>
+  <si>
+    <t>1679742696</t>
+  </si>
+  <si>
+    <t>1679742789</t>
+  </si>
+  <si>
+    <t>1679742882</t>
+  </si>
+  <si>
+    <t>1679742975</t>
+  </si>
+  <si>
+    <t>1679743068</t>
+  </si>
+  <si>
+    <t>1679743161</t>
+  </si>
+  <si>
+    <t>1679744454</t>
+  </si>
+  <si>
+    <t>1679744547</t>
+  </si>
+  <si>
+    <t>1679744640</t>
+  </si>
+  <si>
+    <t>1679744733</t>
+  </si>
+  <si>
+    <t>1679744826</t>
+  </si>
+  <si>
+    <t>1679744919</t>
+  </si>
+  <si>
+    <t>1679745012</t>
+  </si>
+  <si>
+    <t>1679745705</t>
+  </si>
+  <si>
+    <t>1679746998</t>
+  </si>
+  <si>
+    <t>1679747091</t>
+  </si>
+  <si>
+    <t>1679747184</t>
+  </si>
+  <si>
+    <t>1679747277</t>
+  </si>
+  <si>
+    <t>1679747370</t>
+  </si>
+  <si>
+    <t>1679747463</t>
+  </si>
+  <si>
+    <t>1679747556</t>
+  </si>
+  <si>
+    <t>1679747649</t>
+  </si>
+  <si>
+    <t>1679747742</t>
+  </si>
+  <si>
+    <t>1679747835</t>
+  </si>
+  <si>
+    <t>1679747928</t>
+  </si>
+  <si>
+    <t>1679748021</t>
+  </si>
+  <si>
+    <t>1679748114</t>
+  </si>
+  <si>
+    <t>1679748207</t>
+  </si>
+  <si>
+    <t>1679748300</t>
+  </si>
+  <si>
+    <t>1679748393</t>
+  </si>
+  <si>
+    <t>1679748486</t>
+  </si>
+  <si>
+    <t>1679748579</t>
+  </si>
+  <si>
+    <t>1679748672</t>
+  </si>
+  <si>
+    <t>1679748765</t>
+  </si>
+  <si>
+    <t>1679748858</t>
+  </si>
+  <si>
+    <t>1679748951</t>
+  </si>
+  <si>
+    <t>1679749044</t>
+  </si>
+  <si>
+    <t>1679749137</t>
+  </si>
+  <si>
+    <t>1679749230</t>
+  </si>
+  <si>
+    <t>1679751123</t>
+  </si>
+  <si>
+    <t>1679752416</t>
+  </si>
+  <si>
+    <t>1679752509</t>
+  </si>
+  <si>
+    <t>1679752602</t>
+  </si>
+  <si>
+    <t>1679752695</t>
+  </si>
+  <si>
+    <t>1679753388</t>
+  </si>
+  <si>
+    <t>1679753481</t>
+  </si>
+  <si>
+    <t>1679753574</t>
+  </si>
+  <si>
+    <t>1679753667</t>
+  </si>
+  <si>
+    <t>1679753760</t>
+  </si>
+  <si>
+    <t>1679753853</t>
+  </si>
+  <si>
+    <t>1679754547</t>
+  </si>
+  <si>
+    <t>1679755241</t>
+  </si>
+  <si>
+    <t>1679755334</t>
+  </si>
+  <si>
+    <t>1679755427</t>
+  </si>
+  <si>
+    <t>1679755520</t>
+  </si>
+  <si>
+    <t>1679756813</t>
+  </si>
+  <si>
+    <t>1679756906</t>
+  </si>
+  <si>
+    <t>1679756999</t>
+  </si>
+  <si>
+    <t>1679757092</t>
+  </si>
+  <si>
+    <t>1679757185</t>
+  </si>
+  <si>
+    <t>1679757278</t>
+  </si>
+  <si>
+    <t>1679757971</t>
+  </si>
+  <si>
+    <t>1679758665</t>
+  </si>
+  <si>
+    <t>1679758758</t>
+  </si>
+  <si>
+    <t>1679758851</t>
   </si>
   <si>
     <t>GET /node</t>
@@ -1313,40 +1313,40 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>4537</v>
+        <v>22908</v>
       </c>
       <c r="I2">
         <v>100</v>
       </c>
       <c r="J2">
-        <v>59.57</v>
+        <v>59.48</v>
       </c>
       <c r="K2">
-        <v>784.41</v>
+        <v>1260.08</v>
       </c>
       <c r="L2">
-        <v>2.57</v>
+        <v>0.52</v>
       </c>
       <c r="M2">
-        <v>76.16</v>
+        <v>385.14</v>
       </c>
       <c r="N2">
-        <v>13.17</v>
+        <v>21.18</v>
       </c>
       <c r="O2">
-        <v>195.77</v>
+        <v>198.59</v>
       </c>
       <c r="P2">
-        <v>4537</v>
+        <v>22908</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>3.64</v>
+        <v>5.78</v>
       </c>
       <c r="S2">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1372,40 +1372,40 @@
         <v>2</v>
       </c>
       <c r="H3">
-        <v>4510</v>
+        <v>37429</v>
       </c>
       <c r="I3">
         <v>100</v>
       </c>
       <c r="J3">
-        <v>59.26</v>
+        <v>59.56</v>
       </c>
       <c r="K3">
-        <v>779.75</v>
+        <v>2058.82</v>
       </c>
       <c r="L3">
-        <v>2.58</v>
+        <v>0.32</v>
       </c>
       <c r="M3">
-        <v>76.11</v>
+        <v>628.4299999999999</v>
       </c>
       <c r="N3">
-        <v>13.16</v>
+        <v>34.57</v>
       </c>
       <c r="O3">
-        <v>196.02</v>
+        <v>198.96</v>
       </c>
       <c r="P3">
-        <v>4510</v>
+        <v>37429</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>4.07</v>
+        <v>2.64</v>
       </c>
       <c r="S3">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1431,40 +1431,40 @@
         <v>3</v>
       </c>
       <c r="H4">
-        <v>4743</v>
+        <v>42112</v>
       </c>
       <c r="I4">
         <v>100</v>
       </c>
       <c r="J4">
-        <v>59.6</v>
+        <v>59.99</v>
       </c>
       <c r="K4">
-        <v>820.03</v>
+        <v>2316.41</v>
       </c>
       <c r="L4">
-        <v>2.46</v>
+        <v>0.28</v>
       </c>
       <c r="M4">
-        <v>79.58</v>
+        <v>701.98</v>
       </c>
       <c r="N4">
-        <v>13.76</v>
+        <v>38.61</v>
       </c>
       <c r="O4">
-        <v>195.37</v>
+        <v>199.24</v>
       </c>
       <c r="P4">
-        <v>4743</v>
+        <v>42112</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>3.2</v>
+        <v>0.75</v>
       </c>
       <c r="S4">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1490,40 +1490,40 @@
         <v>4</v>
       </c>
       <c r="H5">
-        <v>4663</v>
+        <v>36558</v>
       </c>
       <c r="I5">
         <v>100</v>
       </c>
       <c r="J5">
-        <v>59.54</v>
+        <v>59.11</v>
       </c>
       <c r="K5">
-        <v>806.2</v>
+        <v>2010.91</v>
       </c>
       <c r="L5">
-        <v>2.5</v>
+        <v>0.32</v>
       </c>
       <c r="M5">
-        <v>78.31999999999999</v>
+        <v>618.47</v>
       </c>
       <c r="N5">
-        <v>13.54</v>
+        <v>34.02</v>
       </c>
       <c r="O5">
-        <v>195.76</v>
+        <v>198.82</v>
       </c>
       <c r="P5">
-        <v>4663</v>
+        <v>36558</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>3.72</v>
+        <v>3.34</v>
       </c>
       <c r="S5">
-        <v>0.16</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1549,40 +1549,40 @@
         <v>5</v>
       </c>
       <c r="H6">
-        <v>4777</v>
+        <v>37877</v>
       </c>
       <c r="I6">
         <v>100</v>
       </c>
       <c r="J6">
-        <v>59.36</v>
+        <v>59.94</v>
       </c>
       <c r="K6">
-        <v>825.91</v>
+        <v>2083.46</v>
       </c>
       <c r="L6">
-        <v>2.44</v>
+        <v>0.32</v>
       </c>
       <c r="M6">
-        <v>80.48</v>
+        <v>631.92</v>
       </c>
       <c r="N6">
-        <v>13.91</v>
+        <v>34.76</v>
       </c>
       <c r="O6">
-        <v>196.56</v>
+        <v>199.27</v>
       </c>
       <c r="P6">
-        <v>4777</v>
+        <v>37877</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>3.57</v>
+        <v>3.01</v>
       </c>
       <c r="S6">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1608,40 +1608,40 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>4682</v>
+        <v>31656</v>
       </c>
       <c r="I7">
         <v>100</v>
       </c>
       <c r="J7">
-        <v>59.42</v>
+        <v>59.99</v>
       </c>
       <c r="K7">
-        <v>809.48</v>
+        <v>1741.27</v>
       </c>
       <c r="L7">
-        <v>4.87</v>
+        <v>0.75</v>
       </c>
       <c r="M7">
-        <v>78.8</v>
+        <v>527.6900000000001</v>
       </c>
       <c r="N7">
-        <v>13.62</v>
+        <v>29.03</v>
       </c>
       <c r="O7">
-        <v>383.69</v>
+        <v>394.6</v>
       </c>
       <c r="P7">
-        <v>4682</v>
+        <v>31656</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>6.6</v>
+        <v>8.26</v>
       </c>
       <c r="S7">
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1667,40 +1667,40 @@
         <v>2</v>
       </c>
       <c r="H8">
-        <v>4771</v>
+        <v>40689</v>
       </c>
       <c r="I8">
         <v>100</v>
       </c>
       <c r="J8">
-        <v>59.46</v>
+        <v>59.93</v>
       </c>
       <c r="K8">
-        <v>824.87</v>
+        <v>2238.14</v>
       </c>
       <c r="L8">
-        <v>4.82</v>
+        <v>0.59</v>
       </c>
       <c r="M8">
-        <v>80.23999999999999</v>
+        <v>678.9400000000001</v>
       </c>
       <c r="N8">
-        <v>13.87</v>
+        <v>37.35</v>
       </c>
       <c r="O8">
-        <v>386.5</v>
+        <v>397.88</v>
       </c>
       <c r="P8">
-        <v>4771</v>
+        <v>40689</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>6.43</v>
+        <v>4.85</v>
       </c>
       <c r="S8">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1726,40 +1726,40 @@
         <v>3</v>
       </c>
       <c r="H9">
-        <v>4748</v>
+        <v>34003</v>
       </c>
       <c r="I9">
         <v>100</v>
       </c>
       <c r="J9">
-        <v>59.53</v>
+        <v>60.01</v>
       </c>
       <c r="K9">
-        <v>820.89</v>
+        <v>1870.37</v>
       </c>
       <c r="L9">
-        <v>4.83</v>
+        <v>0.7</v>
       </c>
       <c r="M9">
-        <v>79.76000000000001</v>
+        <v>566.62</v>
       </c>
       <c r="N9">
-        <v>13.79</v>
+        <v>31.17</v>
       </c>
       <c r="O9">
-        <v>385.25</v>
+        <v>395.01</v>
       </c>
       <c r="P9">
-        <v>4748</v>
+        <v>34003</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>6.77</v>
+        <v>7.4</v>
       </c>
       <c r="S9">
-        <v>0.18</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1785,40 +1785,40 @@
         <v>4</v>
       </c>
       <c r="H10">
-        <v>4464</v>
+        <v>36289</v>
       </c>
       <c r="I10">
         <v>100</v>
       </c>
       <c r="J10">
-        <v>59.48</v>
+        <v>59.85</v>
       </c>
       <c r="K10">
-        <v>771.79</v>
+        <v>1996.11</v>
       </c>
       <c r="L10">
-        <v>5.08</v>
+        <v>0.65</v>
       </c>
       <c r="M10">
-        <v>75.05</v>
+        <v>606.33</v>
       </c>
       <c r="N10">
-        <v>12.98</v>
+        <v>33.35</v>
       </c>
       <c r="O10">
-        <v>381.53</v>
+        <v>394.08</v>
       </c>
       <c r="P10">
-        <v>4464</v>
+        <v>36289</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>7.8</v>
+        <v>5.24</v>
       </c>
       <c r="S10">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1844,40 +1844,40 @@
         <v>5</v>
       </c>
       <c r="H11">
-        <v>4812</v>
+        <v>34576</v>
       </c>
       <c r="I11">
         <v>100</v>
       </c>
       <c r="J11">
-        <v>59.17</v>
+        <v>59.88</v>
       </c>
       <c r="K11">
-        <v>831.96</v>
+        <v>1901.89</v>
       </c>
       <c r="L11">
-        <v>4.71</v>
+        <v>0.68</v>
       </c>
       <c r="M11">
-        <v>81.31999999999999</v>
+        <v>577.42</v>
       </c>
       <c r="N11">
-        <v>14.06</v>
+        <v>31.76</v>
       </c>
       <c r="O11">
-        <v>382.85</v>
+        <v>394.49</v>
       </c>
       <c r="P11">
-        <v>4812</v>
+        <v>34576</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>5.86</v>
+        <v>7.33</v>
       </c>
       <c r="S11">
-        <v>0.03</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1903,40 +1903,40 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>4630</v>
+        <v>37810</v>
       </c>
       <c r="I12">
         <v>100</v>
       </c>
       <c r="J12">
-        <v>59.23</v>
+        <v>60.01</v>
       </c>
       <c r="K12">
-        <v>800.49</v>
+        <v>2079.78</v>
       </c>
       <c r="L12">
-        <v>7.18</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="M12">
-        <v>78.17</v>
+        <v>630.0599999999999</v>
       </c>
       <c r="N12">
-        <v>13.51</v>
+        <v>34.66</v>
       </c>
       <c r="O12">
-        <v>561.5700000000001</v>
+        <v>590.1</v>
       </c>
       <c r="P12">
-        <v>4630</v>
+        <v>37810</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
-        <v>8.92</v>
+        <v>11.02</v>
       </c>
       <c r="S12">
-        <v>0.21</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1962,40 +1962,40 @@
         <v>2</v>
       </c>
       <c r="H13">
-        <v>4350</v>
+        <v>41051</v>
       </c>
       <c r="I13">
         <v>100</v>
       </c>
       <c r="J13">
-        <v>59.35</v>
+        <v>59.89</v>
       </c>
       <c r="K13">
-        <v>752.08</v>
+        <v>2258.05</v>
       </c>
       <c r="L13">
-        <v>7.34</v>
+        <v>0.87</v>
       </c>
       <c r="M13">
-        <v>73.29000000000001</v>
+        <v>685.4400000000001</v>
       </c>
       <c r="N13">
-        <v>12.67</v>
+        <v>37.7</v>
       </c>
       <c r="O13">
-        <v>537.97</v>
+        <v>593.1799999999999</v>
       </c>
       <c r="P13">
-        <v>4350</v>
+        <v>41051</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13">
-        <v>10.59</v>
+        <v>1.88</v>
       </c>
       <c r="S13">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -2021,40 +2021,40 @@
         <v>3</v>
       </c>
       <c r="H14">
-        <v>4915</v>
+        <v>31879</v>
       </c>
       <c r="I14">
         <v>100</v>
       </c>
       <c r="J14">
-        <v>59.93</v>
+        <v>59.72</v>
       </c>
       <c r="K14">
-        <v>849.77</v>
+        <v>1753.54</v>
       </c>
       <c r="L14">
-        <v>6.81</v>
+        <v>1.1</v>
       </c>
       <c r="M14">
-        <v>82.01000000000001</v>
+        <v>533.8099999999999</v>
       </c>
       <c r="N14">
-        <v>14.18</v>
+        <v>29.36</v>
       </c>
       <c r="O14">
-        <v>558.13</v>
+        <v>586.16</v>
       </c>
       <c r="P14">
-        <v>4915</v>
+        <v>31879</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14">
-        <v>8.26</v>
+        <v>14.33</v>
       </c>
       <c r="S14">
-        <v>0.36</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -2080,40 +2080,40 @@
         <v>4</v>
       </c>
       <c r="H15">
-        <v>4908</v>
+        <v>36256</v>
       </c>
       <c r="I15">
         <v>100</v>
       </c>
       <c r="J15">
-        <v>59.31</v>
+        <v>59.93</v>
       </c>
       <c r="K15">
-        <v>848.5599999999999</v>
+        <v>1994.3</v>
       </c>
       <c r="L15">
-        <v>6.77</v>
+        <v>0.97</v>
       </c>
       <c r="M15">
-        <v>82.75</v>
+        <v>604.97</v>
       </c>
       <c r="N15">
-        <v>14.31</v>
+        <v>33.28</v>
       </c>
       <c r="O15">
-        <v>560.36</v>
+        <v>586.38</v>
       </c>
       <c r="P15">
-        <v>4908</v>
+        <v>36256</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15">
-        <v>8.75</v>
+        <v>11.87</v>
       </c>
       <c r="S15">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -2139,40 +2139,40 @@
         <v>5</v>
       </c>
       <c r="H16">
-        <v>4788</v>
+        <v>30167</v>
       </c>
       <c r="I16">
         <v>100</v>
       </c>
       <c r="J16">
-        <v>59.23</v>
+        <v>59.83</v>
       </c>
       <c r="K16">
-        <v>827.8099999999999</v>
+        <v>1659.37</v>
       </c>
       <c r="L16">
-        <v>7.01</v>
+        <v>1.16</v>
       </c>
       <c r="M16">
-        <v>80.84</v>
+        <v>504.21</v>
       </c>
       <c r="N16">
-        <v>13.98</v>
+        <v>27.73</v>
       </c>
       <c r="O16">
-        <v>566.79</v>
+        <v>586.41</v>
       </c>
       <c r="P16">
-        <v>4788</v>
+        <v>30167</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16">
-        <v>10.29</v>
+        <v>15.09</v>
       </c>
       <c r="S16">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -2198,40 +2198,40 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>4831</v>
+        <v>28805</v>
       </c>
       <c r="I17">
         <v>100</v>
       </c>
       <c r="J17">
-        <v>59.39</v>
+        <v>59.56</v>
       </c>
       <c r="K17">
-        <v>835.24</v>
+        <v>1584.45</v>
       </c>
       <c r="L17">
-        <v>9</v>
+        <v>1.6</v>
       </c>
       <c r="M17">
-        <v>81.34</v>
+        <v>483.63</v>
       </c>
       <c r="N17">
-        <v>14.06</v>
+        <v>26.6</v>
       </c>
       <c r="O17">
-        <v>732.1900000000001</v>
+        <v>773.29</v>
       </c>
       <c r="P17">
-        <v>4831</v>
+        <v>28805</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17">
-        <v>10.91</v>
+        <v>25.35</v>
       </c>
       <c r="S17">
-        <v>0.32</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -2257,37 +2257,37 @@
         <v>2</v>
       </c>
       <c r="H18">
-        <v>4828</v>
+        <v>29002</v>
       </c>
       <c r="I18">
         <v>100</v>
       </c>
       <c r="J18">
-        <v>59.65</v>
+        <v>60.02</v>
       </c>
       <c r="K18">
-        <v>834.73</v>
+        <v>1595.28</v>
       </c>
       <c r="L18">
-        <v>9.19</v>
+        <v>1.6</v>
       </c>
       <c r="M18">
-        <v>80.94</v>
+        <v>483.21</v>
       </c>
       <c r="N18">
-        <v>13.99</v>
+        <v>26.58</v>
       </c>
       <c r="O18">
-        <v>743.75</v>
+        <v>774.38</v>
       </c>
       <c r="P18">
-        <v>4828</v>
+        <v>29002</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18">
-        <v>12.51</v>
+        <v>17</v>
       </c>
       <c r="S18">
         <v>0.03</v>
@@ -2316,40 +2316,40 @@
         <v>3</v>
       </c>
       <c r="H19">
-        <v>4766</v>
+        <v>28505</v>
       </c>
       <c r="I19">
         <v>100</v>
       </c>
       <c r="J19">
-        <v>59.53</v>
+        <v>59.52</v>
       </c>
       <c r="K19">
-        <v>824.01</v>
+        <v>1567.95</v>
       </c>
       <c r="L19">
-        <v>9.25</v>
+        <v>1.62</v>
       </c>
       <c r="M19">
-        <v>80.06</v>
+        <v>478.91</v>
       </c>
       <c r="N19">
-        <v>13.84</v>
+        <v>26.34</v>
       </c>
       <c r="O19">
-        <v>740.39</v>
+        <v>777.0599999999999</v>
       </c>
       <c r="P19">
-        <v>4766</v>
+        <v>28505</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
       <c r="R19">
-        <v>11.44</v>
+        <v>18.26</v>
       </c>
       <c r="S19">
-        <v>0.14</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -2375,40 +2375,40 @@
         <v>4</v>
       </c>
       <c r="H20">
-        <v>4909</v>
+        <v>28680</v>
       </c>
       <c r="I20">
         <v>100</v>
       </c>
       <c r="J20">
-        <v>59.45</v>
+        <v>59.94</v>
       </c>
       <c r="K20">
-        <v>848.73</v>
+        <v>1577.57</v>
       </c>
       <c r="L20">
-        <v>8.880000000000001</v>
+        <v>1.61</v>
       </c>
       <c r="M20">
-        <v>82.56999999999999</v>
+        <v>478.48</v>
       </c>
       <c r="N20">
-        <v>14.28</v>
+        <v>26.32</v>
       </c>
       <c r="O20">
-        <v>733.2</v>
+        <v>768.59</v>
       </c>
       <c r="P20">
-        <v>4909</v>
+        <v>28680</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20">
-        <v>11.33</v>
+        <v>21.68</v>
       </c>
       <c r="S20">
-        <v>0.18</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -2434,40 +2434,40 @@
         <v>5</v>
       </c>
       <c r="H21">
-        <v>4691</v>
+        <v>32641</v>
       </c>
       <c r="I21">
         <v>100</v>
       </c>
       <c r="J21">
-        <v>59.37</v>
+        <v>59.83</v>
       </c>
       <c r="K21">
-        <v>811.04</v>
+        <v>1795.45</v>
       </c>
       <c r="L21">
-        <v>9.390000000000001</v>
+        <v>1.42</v>
       </c>
       <c r="M21">
-        <v>79.01000000000001</v>
+        <v>545.5599999999999</v>
       </c>
       <c r="N21">
-        <v>13.66</v>
+        <v>30.01</v>
       </c>
       <c r="O21">
-        <v>742.21</v>
+        <v>774.77</v>
       </c>
       <c r="P21">
-        <v>4691</v>
+        <v>32641</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
       <c r="R21">
-        <v>11.98</v>
+        <v>20.7</v>
       </c>
       <c r="S21">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -2493,40 +2493,40 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>5081</v>
+        <v>27668</v>
       </c>
       <c r="I22">
         <v>100</v>
       </c>
       <c r="J22">
-        <v>59.53</v>
+        <v>59.71</v>
       </c>
       <c r="K22">
-        <v>878.47</v>
+        <v>1521.96</v>
       </c>
       <c r="L22">
-        <v>10.56</v>
+        <v>2.07</v>
       </c>
       <c r="M22">
-        <v>85.34999999999999</v>
+        <v>463.37</v>
       </c>
       <c r="N22">
-        <v>14.76</v>
+        <v>25.49</v>
       </c>
       <c r="O22">
-        <v>901.22</v>
+        <v>958.73</v>
       </c>
       <c r="P22">
-        <v>5081</v>
+        <v>27669</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22">
-        <v>14.49</v>
+        <v>25.54</v>
       </c>
       <c r="S22">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -2552,40 +2552,40 @@
         <v>2</v>
       </c>
       <c r="H23">
-        <v>4562</v>
+        <v>26579</v>
       </c>
       <c r="I23">
         <v>100</v>
       </c>
       <c r="J23">
-        <v>59.26</v>
+        <v>59.88</v>
       </c>
       <c r="K23">
-        <v>788.74</v>
+        <v>1462.01</v>
       </c>
       <c r="L23">
-        <v>11.63</v>
+        <v>2.16</v>
       </c>
       <c r="M23">
-        <v>76.98</v>
+        <v>443.87</v>
       </c>
       <c r="N23">
-        <v>13.31</v>
+        <v>24.42</v>
       </c>
       <c r="O23">
-        <v>895.29</v>
+        <v>959.6799999999999</v>
       </c>
       <c r="P23">
-        <v>4562</v>
+        <v>26579</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
       <c r="R23">
-        <v>17.3</v>
+        <v>24.44</v>
       </c>
       <c r="S23">
-        <v>0.12</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -2611,40 +2611,40 @@
         <v>3</v>
       </c>
       <c r="H24">
-        <v>4942</v>
+        <v>24749</v>
       </c>
       <c r="I24">
         <v>100</v>
       </c>
       <c r="J24">
-        <v>59.95</v>
+        <v>59.27</v>
       </c>
       <c r="K24">
-        <v>854.4400000000001</v>
+        <v>1361.34</v>
       </c>
       <c r="L24">
-        <v>11.07</v>
+        <v>2.3</v>
       </c>
       <c r="M24">
-        <v>82.44</v>
+        <v>417.56</v>
       </c>
       <c r="N24">
-        <v>14.25</v>
+        <v>22.97</v>
       </c>
       <c r="O24">
-        <v>912.85</v>
+        <v>961.77</v>
       </c>
       <c r="P24">
-        <v>4942</v>
+        <v>24749</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
       <c r="R24">
-        <v>13.53</v>
+        <v>17.94</v>
       </c>
       <c r="S24">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -2670,40 +2670,40 @@
         <v>4</v>
       </c>
       <c r="H25">
-        <v>4643</v>
+        <v>29077</v>
       </c>
       <c r="I25">
         <v>100</v>
       </c>
       <c r="J25">
-        <v>59.52</v>
+        <v>59.42</v>
       </c>
       <c r="K25">
-        <v>802.74</v>
+        <v>1599.41</v>
       </c>
       <c r="L25">
-        <v>11.44</v>
+        <v>1.97</v>
       </c>
       <c r="M25">
-        <v>78.01000000000001</v>
+        <v>489.35</v>
       </c>
       <c r="N25">
-        <v>13.49</v>
+        <v>26.92</v>
       </c>
       <c r="O25">
-        <v>892.05</v>
+        <v>964.9299999999999</v>
       </c>
       <c r="P25">
-        <v>4643</v>
+        <v>29077</v>
       </c>
       <c r="Q25">
         <v>0</v>
       </c>
       <c r="R25">
-        <v>14.54</v>
+        <v>19.83</v>
       </c>
       <c r="S25">
-        <v>0.28</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -2729,40 +2729,40 @@
         <v>5</v>
       </c>
       <c r="H26">
-        <v>4384</v>
+        <v>27588</v>
       </c>
       <c r="I26">
         <v>100</v>
       </c>
       <c r="J26">
-        <v>59.07</v>
+        <v>59.8</v>
       </c>
       <c r="K26">
-        <v>757.96</v>
+        <v>1517.51</v>
       </c>
       <c r="L26">
-        <v>12.03</v>
+        <v>2.11</v>
       </c>
       <c r="M26">
-        <v>74.22</v>
+        <v>461.34</v>
       </c>
       <c r="N26">
-        <v>12.83</v>
+        <v>25.38</v>
       </c>
       <c r="O26">
-        <v>892.76</v>
+        <v>972.52</v>
       </c>
       <c r="P26">
-        <v>4384</v>
+        <v>27588</v>
       </c>
       <c r="Q26">
         <v>0</v>
       </c>
       <c r="R26">
-        <v>16.94</v>
+        <v>21.51</v>
       </c>
       <c r="S26">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -2788,40 +2788,40 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>193128</v>
+        <v>139597</v>
       </c>
       <c r="I27">
         <v>100</v>
       </c>
       <c r="J27">
-        <v>59.38</v>
+        <v>59.82</v>
       </c>
       <c r="K27">
-        <v>386.78</v>
+        <v>279.57</v>
       </c>
       <c r="L27">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="M27">
-        <v>3252.41</v>
+        <v>2333.62</v>
       </c>
       <c r="N27">
-        <v>6.51</v>
+        <v>4.67</v>
       </c>
       <c r="O27">
-        <v>199.69</v>
+        <v>199.49</v>
       </c>
       <c r="P27">
-        <v>193128</v>
+        <v>139597</v>
       </c>
       <c r="Q27">
         <v>0</v>
       </c>
       <c r="R27">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="S27">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -2847,40 +2847,40 @@
         <v>2</v>
       </c>
       <c r="H28">
-        <v>193294</v>
+        <v>150127</v>
       </c>
       <c r="I28">
         <v>100</v>
       </c>
       <c r="J28">
-        <v>59.83</v>
+        <v>59.65</v>
       </c>
       <c r="K28">
-        <v>387.11</v>
+        <v>300.66</v>
       </c>
       <c r="L28">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="M28">
-        <v>3230.72</v>
+        <v>2516.8</v>
       </c>
       <c r="N28">
-        <v>6.47</v>
+        <v>5.04</v>
       </c>
       <c r="O28">
-        <v>199.54</v>
+        <v>199.45</v>
       </c>
       <c r="P28">
-        <v>193294</v>
+        <v>150127</v>
       </c>
       <c r="Q28">
         <v>0</v>
       </c>
       <c r="R28">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="S28">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -2906,40 +2906,40 @@
         <v>3</v>
       </c>
       <c r="H29">
-        <v>154586</v>
+        <v>130670</v>
       </c>
       <c r="I29">
         <v>100</v>
       </c>
       <c r="J29">
-        <v>59.76</v>
+        <v>59.64</v>
       </c>
       <c r="K29">
-        <v>309.59</v>
+        <v>261.69</v>
       </c>
       <c r="L29">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="M29">
-        <v>2586.78</v>
+        <v>2190.98</v>
       </c>
       <c r="N29">
-        <v>5.18</v>
+        <v>4.39</v>
       </c>
       <c r="O29">
-        <v>199.67</v>
+        <v>198.68</v>
       </c>
       <c r="P29">
-        <v>154586</v>
+        <v>130670</v>
       </c>
       <c r="Q29">
         <v>0</v>
       </c>
       <c r="R29">
-        <v>0.24</v>
+        <v>0.78</v>
       </c>
       <c r="S29">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -2965,40 +2965,40 @@
         <v>4</v>
       </c>
       <c r="H30">
-        <v>212103</v>
+        <v>117849</v>
       </c>
       <c r="I30">
         <v>100</v>
       </c>
       <c r="J30">
-        <v>59.79</v>
+        <v>59.67</v>
       </c>
       <c r="K30">
-        <v>424.78</v>
+        <v>236.02</v>
       </c>
       <c r="L30">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="M30">
-        <v>3547.47</v>
+        <v>1975.01</v>
       </c>
       <c r="N30">
-        <v>7.1</v>
+        <v>3.96</v>
       </c>
       <c r="O30">
-        <v>199.63</v>
+        <v>198.88</v>
       </c>
       <c r="P30">
-        <v>212103</v>
+        <v>117849</v>
       </c>
       <c r="Q30">
         <v>0</v>
       </c>
       <c r="R30">
-        <v>0.25</v>
+        <v>0.64</v>
       </c>
       <c r="S30">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -3024,40 +3024,40 @@
         <v>5</v>
       </c>
       <c r="H31">
-        <v>181703</v>
+        <v>137447</v>
       </c>
       <c r="I31">
         <v>100</v>
       </c>
       <c r="J31">
-        <v>59.78</v>
+        <v>59.61</v>
       </c>
       <c r="K31">
-        <v>363.9</v>
+        <v>275.27</v>
       </c>
       <c r="L31">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="M31">
-        <v>3039.53</v>
+        <v>2305.77</v>
       </c>
       <c r="N31">
-        <v>6.09</v>
+        <v>4.62</v>
       </c>
       <c r="O31">
-        <v>199.6</v>
+        <v>199.31</v>
       </c>
       <c r="P31">
-        <v>181703</v>
+        <v>137447</v>
       </c>
       <c r="Q31">
         <v>0</v>
       </c>
       <c r="R31">
-        <v>0.22</v>
+        <v>0.31</v>
       </c>
       <c r="S31">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -3083,40 +3083,40 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>163580</v>
+        <v>148959</v>
       </c>
       <c r="I32">
         <v>100</v>
       </c>
       <c r="J32">
-        <v>59.77</v>
+        <v>59.67</v>
       </c>
       <c r="K32">
-        <v>327.6</v>
+        <v>298.32</v>
       </c>
       <c r="L32">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="M32">
-        <v>2736.82</v>
+        <v>2496.38</v>
       </c>
       <c r="N32">
-        <v>5.48</v>
+        <v>5</v>
       </c>
       <c r="O32">
-        <v>399.04</v>
+        <v>397.8</v>
       </c>
       <c r="P32">
-        <v>163580</v>
+        <v>148959</v>
       </c>
       <c r="Q32">
         <v>0</v>
       </c>
       <c r="R32">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S32">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -3142,40 +3142,40 @@
         <v>2</v>
       </c>
       <c r="H33">
-        <v>164309</v>
+        <v>127556</v>
       </c>
       <c r="I33">
         <v>100</v>
       </c>
       <c r="J33">
-        <v>59.79</v>
+        <v>59.47</v>
       </c>
       <c r="K33">
-        <v>329.06</v>
+        <v>255.46</v>
       </c>
       <c r="L33">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="M33">
-        <v>2748.1</v>
+        <v>2144.88</v>
       </c>
       <c r="N33">
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
       <c r="O33">
-        <v>399.07</v>
+        <v>397.67</v>
       </c>
       <c r="P33">
-        <v>164309</v>
+        <v>127556</v>
       </c>
       <c r="Q33">
         <v>0</v>
       </c>
       <c r="R33">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="S33">
-        <v>0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -3201,40 +3201,40 @@
         <v>3</v>
       </c>
       <c r="H34">
-        <v>159363</v>
+        <v>93902</v>
       </c>
       <c r="I34">
         <v>100</v>
       </c>
       <c r="J34">
-        <v>59.77</v>
+        <v>59.57</v>
       </c>
       <c r="K34">
-        <v>319.16</v>
+        <v>188.06</v>
       </c>
       <c r="L34">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="M34">
-        <v>2666.27</v>
+        <v>1576.33</v>
       </c>
       <c r="N34">
-        <v>5.34</v>
+        <v>3.16</v>
       </c>
       <c r="O34">
-        <v>399.08</v>
+        <v>397.92</v>
       </c>
       <c r="P34">
-        <v>159363</v>
+        <v>93902</v>
       </c>
       <c r="Q34">
         <v>0</v>
       </c>
       <c r="R34">
-        <v>1.18</v>
+        <v>2.04</v>
       </c>
       <c r="S34">
-        <v>0.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -3260,40 +3260,40 @@
         <v>4</v>
       </c>
       <c r="H35">
-        <v>159527</v>
+        <v>139164</v>
       </c>
       <c r="I35">
         <v>100</v>
       </c>
       <c r="J35">
-        <v>59.77</v>
+        <v>59.56</v>
       </c>
       <c r="K35">
-        <v>319.49</v>
+        <v>278.71</v>
       </c>
       <c r="L35">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="M35">
-        <v>2669.01</v>
+        <v>2336.53</v>
       </c>
       <c r="N35">
-        <v>5.35</v>
+        <v>4.68</v>
       </c>
       <c r="O35">
-        <v>399.08</v>
+        <v>398.03</v>
       </c>
       <c r="P35">
-        <v>159527</v>
+        <v>139164</v>
       </c>
       <c r="Q35">
         <v>0</v>
       </c>
       <c r="R35">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="S35">
-        <v>0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -3319,40 +3319,40 @@
         <v>5</v>
       </c>
       <c r="H36">
-        <v>155417</v>
+        <v>158772</v>
       </c>
       <c r="I36">
         <v>100</v>
       </c>
       <c r="J36">
-        <v>59.77</v>
+        <v>59.63</v>
       </c>
       <c r="K36">
-        <v>311.26</v>
+        <v>317.98</v>
       </c>
       <c r="L36">
         <v>0.15</v>
       </c>
       <c r="M36">
-        <v>2600.25</v>
+        <v>2662.62</v>
       </c>
       <c r="N36">
-        <v>5.21</v>
+        <v>5.33</v>
       </c>
       <c r="O36">
-        <v>399.04</v>
+        <v>398.32</v>
       </c>
       <c r="P36">
-        <v>155417</v>
+        <v>158772</v>
       </c>
       <c r="Q36">
         <v>0</v>
       </c>
       <c r="R36">
-        <v>1.19</v>
+        <v>2.16</v>
       </c>
       <c r="S36">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -3378,40 +3378,40 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>158928</v>
+        <v>150915</v>
       </c>
       <c r="I37">
         <v>100</v>
       </c>
       <c r="J37">
-        <v>59.77</v>
+        <v>59.64</v>
       </c>
       <c r="K37">
-        <v>318.29</v>
+        <v>302.24</v>
       </c>
       <c r="L37">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="M37">
-        <v>2658.99</v>
+        <v>2530.43</v>
       </c>
       <c r="N37">
-        <v>5.33</v>
+        <v>5.07</v>
       </c>
       <c r="O37">
-        <v>596.75</v>
+        <v>595.29</v>
       </c>
       <c r="P37">
-        <v>158928</v>
+        <v>150915</v>
       </c>
       <c r="Q37">
         <v>0</v>
       </c>
       <c r="R37">
-        <v>7.28</v>
+        <v>3.21</v>
       </c>
       <c r="S37">
-        <v>0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -3437,40 +3437,40 @@
         <v>2</v>
       </c>
       <c r="H38">
-        <v>150620</v>
+        <v>127314</v>
       </c>
       <c r="I38">
         <v>100</v>
       </c>
       <c r="J38">
-        <v>59.72</v>
+        <v>59.63</v>
       </c>
       <c r="K38">
-        <v>301.65</v>
+        <v>254.97</v>
       </c>
       <c r="L38">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="M38">
-        <v>2522.1</v>
+        <v>2135.07</v>
       </c>
       <c r="N38">
-        <v>5.05</v>
+        <v>4.28</v>
       </c>
       <c r="O38">
-        <v>596.62</v>
+        <v>594.8099999999999</v>
       </c>
       <c r="P38">
-        <v>150621</v>
+        <v>127314</v>
       </c>
       <c r="Q38">
         <v>0</v>
       </c>
       <c r="R38">
-        <v>3.24</v>
+        <v>5.24</v>
       </c>
       <c r="S38">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -3496,40 +3496,40 @@
         <v>3</v>
       </c>
       <c r="H39">
-        <v>148427</v>
+        <v>164709</v>
       </c>
       <c r="I39">
         <v>100</v>
       </c>
       <c r="J39">
-        <v>59.64</v>
+        <v>59.49</v>
       </c>
       <c r="K39">
-        <v>297.26</v>
+        <v>329.87</v>
       </c>
       <c r="L39">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="M39">
-        <v>2488.72</v>
+        <v>2768.68</v>
       </c>
       <c r="N39">
-        <v>4.98</v>
+        <v>5.54</v>
       </c>
       <c r="O39">
-        <v>597.12</v>
+        <v>596.49</v>
       </c>
       <c r="P39">
-        <v>148427</v>
+        <v>164709</v>
       </c>
       <c r="Q39">
         <v>0</v>
       </c>
       <c r="R39">
-        <v>3.46</v>
+        <v>5.22</v>
       </c>
       <c r="S39">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:19">
@@ -3555,40 +3555,40 @@
         <v>4</v>
       </c>
       <c r="H40">
-        <v>167518</v>
+        <v>133594</v>
       </c>
       <c r="I40">
         <v>100</v>
       </c>
       <c r="J40">
-        <v>59.66</v>
+        <v>59.59</v>
       </c>
       <c r="K40">
-        <v>335.49</v>
+        <v>267.55</v>
       </c>
       <c r="L40">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
       <c r="M40">
-        <v>2807.88</v>
+        <v>2241.89</v>
       </c>
       <c r="N40">
-        <v>5.62</v>
+        <v>4.49</v>
       </c>
       <c r="O40">
-        <v>597.21</v>
+        <v>593.89</v>
       </c>
       <c r="P40">
-        <v>167518</v>
+        <v>133594</v>
       </c>
       <c r="Q40">
         <v>0</v>
       </c>
       <c r="R40">
-        <v>3.27</v>
+        <v>3.22</v>
       </c>
       <c r="S40">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -3614,40 +3614,40 @@
         <v>5</v>
       </c>
       <c r="H41">
-        <v>154894</v>
+        <v>164303</v>
       </c>
       <c r="I41">
         <v>100</v>
       </c>
       <c r="J41">
-        <v>59.74</v>
+        <v>59.58</v>
       </c>
       <c r="K41">
-        <v>310.21</v>
+        <v>329.05</v>
       </c>
       <c r="L41">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="M41">
-        <v>2592.8</v>
+        <v>2757.69</v>
       </c>
       <c r="N41">
-        <v>5.19</v>
+        <v>5.52</v>
       </c>
       <c r="O41">
-        <v>596.79</v>
+        <v>595.85</v>
       </c>
       <c r="P41">
-        <v>154894</v>
+        <v>164303</v>
       </c>
       <c r="Q41">
         <v>0</v>
       </c>
       <c r="R41">
-        <v>3.24</v>
+        <v>5.21</v>
       </c>
       <c r="S41">
-        <v>0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:19">
@@ -3673,40 +3673,40 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>207908</v>
+        <v>123870</v>
       </c>
       <c r="I42">
         <v>100</v>
       </c>
       <c r="J42">
-        <v>59.02</v>
+        <v>59.71</v>
       </c>
       <c r="K42">
-        <v>416.38</v>
+        <v>248.08</v>
       </c>
       <c r="L42">
-        <v>0.23</v>
+        <v>0.38</v>
       </c>
       <c r="M42">
-        <v>3522.67</v>
+        <v>2074.53</v>
       </c>
       <c r="N42">
-        <v>7.05</v>
+        <v>4.15</v>
       </c>
       <c r="O42">
-        <v>795.41</v>
+        <v>790.88</v>
       </c>
       <c r="P42">
-        <v>207908</v>
+        <v>123870</v>
       </c>
       <c r="Q42">
         <v>0</v>
       </c>
       <c r="R42">
-        <v>3.6</v>
+        <v>10.91</v>
       </c>
       <c r="S42">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -3732,40 +3732,40 @@
         <v>2</v>
       </c>
       <c r="H43">
-        <v>165603</v>
+        <v>121746</v>
       </c>
       <c r="I43">
         <v>100</v>
       </c>
       <c r="J43">
-        <v>59.78</v>
+        <v>59.36</v>
       </c>
       <c r="K43">
-        <v>331.66</v>
+        <v>243.82</v>
       </c>
       <c r="L43">
-        <v>0.29</v>
+        <v>0.39</v>
       </c>
       <c r="M43">
-        <v>2770.21</v>
+        <v>2050.98</v>
       </c>
       <c r="N43">
-        <v>5.55</v>
+        <v>4.11</v>
       </c>
       <c r="O43">
-        <v>795.0599999999999</v>
+        <v>793.4299999999999</v>
       </c>
       <c r="P43">
-        <v>165603</v>
+        <v>121746</v>
       </c>
       <c r="Q43">
         <v>0</v>
       </c>
       <c r="R43">
-        <v>5.18</v>
+        <v>7.36</v>
       </c>
       <c r="S43">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="44" spans="1:19">
@@ -3791,40 +3791,40 @@
         <v>3</v>
       </c>
       <c r="H44">
-        <v>142470</v>
+        <v>145058</v>
       </c>
       <c r="I44">
         <v>100</v>
       </c>
       <c r="J44">
-        <v>59.74</v>
+        <v>59.56</v>
       </c>
       <c r="K44">
-        <v>285.33</v>
+        <v>290.51</v>
       </c>
       <c r="L44">
         <v>0.33</v>
       </c>
       <c r="M44">
-        <v>2384.83</v>
+        <v>2435.49</v>
       </c>
       <c r="N44">
-        <v>4.78</v>
+        <v>4.88</v>
       </c>
       <c r="O44">
-        <v>794.6900000000001</v>
+        <v>793.75</v>
       </c>
       <c r="P44">
-        <v>142470</v>
+        <v>145058</v>
       </c>
       <c r="Q44">
         <v>0</v>
       </c>
       <c r="R44">
-        <v>7.92</v>
+        <v>7.45</v>
       </c>
       <c r="S44">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -3850,40 +3850,40 @@
         <v>4</v>
       </c>
       <c r="H45">
-        <v>153899</v>
+        <v>135849</v>
       </c>
       <c r="I45">
         <v>100</v>
       </c>
       <c r="J45">
-        <v>59.78</v>
+        <v>59.65</v>
       </c>
       <c r="K45">
-        <v>308.22</v>
+        <v>272.07</v>
       </c>
       <c r="L45">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="M45">
-        <v>2574.42</v>
+        <v>2277.44</v>
       </c>
       <c r="N45">
-        <v>5.16</v>
+        <v>4.56</v>
       </c>
       <c r="O45">
-        <v>793.4400000000001</v>
+        <v>792.49</v>
       </c>
       <c r="P45">
-        <v>153899</v>
+        <v>135849</v>
       </c>
       <c r="Q45">
         <v>0</v>
       </c>
       <c r="R45">
-        <v>7.28</v>
+        <v>10.12</v>
       </c>
       <c r="S45">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="46" spans="1:19">
@@ -3909,40 +3909,40 @@
         <v>5</v>
       </c>
       <c r="H46">
-        <v>148492</v>
+        <v>151852</v>
       </c>
       <c r="I46">
         <v>100</v>
       </c>
       <c r="J46">
-        <v>59.7</v>
+        <v>59.55</v>
       </c>
       <c r="K46">
-        <v>297.39</v>
+        <v>304.12</v>
       </c>
       <c r="L46">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="M46">
-        <v>2487.3</v>
+        <v>2549.99</v>
       </c>
       <c r="N46">
-        <v>4.98</v>
+        <v>5.11</v>
       </c>
       <c r="O46">
-        <v>794.1900000000001</v>
+        <v>793.72</v>
       </c>
       <c r="P46">
-        <v>148492</v>
+        <v>151852</v>
       </c>
       <c r="Q46">
         <v>0</v>
       </c>
       <c r="R46">
-        <v>7.51</v>
+        <v>6.57</v>
       </c>
       <c r="S46">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -3968,40 +3968,40 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>155931</v>
+        <v>135050</v>
       </c>
       <c r="I47">
         <v>100</v>
       </c>
       <c r="J47">
-        <v>59.7</v>
+        <v>59.72</v>
       </c>
       <c r="K47">
-        <v>312.29</v>
+        <v>270.47</v>
       </c>
       <c r="L47">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="M47">
-        <v>2611.91</v>
+        <v>2261.39</v>
       </c>
       <c r="N47">
-        <v>5.23</v>
+        <v>4.53</v>
       </c>
       <c r="O47">
-        <v>991.39</v>
+        <v>989.72</v>
       </c>
       <c r="P47">
-        <v>155931</v>
+        <v>135050</v>
       </c>
       <c r="Q47">
         <v>0</v>
       </c>
       <c r="R47">
-        <v>6.96</v>
+        <v>7.48</v>
       </c>
       <c r="S47">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -4027,40 +4027,40 @@
         <v>2</v>
       </c>
       <c r="H48">
-        <v>143674</v>
+        <v>137697</v>
       </c>
       <c r="I48">
         <v>100</v>
       </c>
       <c r="J48">
-        <v>59.74</v>
+        <v>59.53</v>
       </c>
       <c r="K48">
-        <v>287.74</v>
+        <v>275.77</v>
       </c>
       <c r="L48">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="M48">
-        <v>2404.99</v>
+        <v>2313.07</v>
       </c>
       <c r="N48">
-        <v>4.82</v>
+        <v>4.63</v>
       </c>
       <c r="O48">
-        <v>990</v>
+        <v>989.02</v>
       </c>
       <c r="P48">
-        <v>143674</v>
+        <v>137697</v>
       </c>
       <c r="Q48">
         <v>0</v>
       </c>
       <c r="R48">
-        <v>16.83</v>
+        <v>8.09</v>
       </c>
       <c r="S48">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -4086,40 +4086,40 @@
         <v>3</v>
       </c>
       <c r="H49">
-        <v>142791</v>
+        <v>155476</v>
       </c>
       <c r="I49">
         <v>100</v>
       </c>
       <c r="J49">
-        <v>59.67</v>
+        <v>59.63</v>
       </c>
       <c r="K49">
-        <v>285.97</v>
+        <v>311.37</v>
       </c>
       <c r="L49">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
       <c r="M49">
-        <v>2393.01</v>
+        <v>2607.35</v>
       </c>
       <c r="N49">
-        <v>4.79</v>
+        <v>5.22</v>
       </c>
       <c r="O49">
-        <v>989.0599999999999</v>
+        <v>989.37</v>
       </c>
       <c r="P49">
-        <v>142791</v>
+        <v>155476</v>
       </c>
       <c r="Q49">
         <v>0</v>
       </c>
       <c r="R49">
-        <v>9.4</v>
+        <v>13</v>
       </c>
       <c r="S49">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="50" spans="1:19">
@@ -4145,40 +4145,40 @@
         <v>4</v>
       </c>
       <c r="H50">
-        <v>158119</v>
+        <v>134779</v>
       </c>
       <c r="I50">
         <v>100</v>
       </c>
       <c r="J50">
-        <v>59.74</v>
+        <v>59.49</v>
       </c>
       <c r="K50">
-        <v>316.67</v>
+        <v>269.92</v>
       </c>
       <c r="L50">
-        <v>0.37</v>
+        <v>0.44</v>
       </c>
       <c r="M50">
-        <v>2646.79</v>
+        <v>2265.57</v>
       </c>
       <c r="N50">
-        <v>5.3</v>
+        <v>4.54</v>
       </c>
       <c r="O50">
-        <v>991.58</v>
+        <v>988.78</v>
       </c>
       <c r="P50">
-        <v>158119</v>
+        <v>134779</v>
       </c>
       <c r="Q50">
         <v>0</v>
       </c>
       <c r="R50">
-        <v>7.82</v>
+        <v>13.58</v>
       </c>
       <c r="S50">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="51" spans="1:19">
@@ -4204,40 +4204,40 @@
         <v>5</v>
       </c>
       <c r="H51">
-        <v>142223</v>
+        <v>118322</v>
       </c>
       <c r="I51">
         <v>100</v>
       </c>
       <c r="J51">
-        <v>59.75</v>
+        <v>59.63</v>
       </c>
       <c r="K51">
-        <v>284.83</v>
+        <v>236.97</v>
       </c>
       <c r="L51">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="M51">
-        <v>2380.3</v>
+        <v>1984.27</v>
       </c>
       <c r="N51">
-        <v>4.77</v>
+        <v>3.97</v>
       </c>
       <c r="O51">
-        <v>990.5</v>
+        <v>986.63</v>
       </c>
       <c r="P51">
-        <v>142223</v>
+        <v>118322</v>
       </c>
       <c r="Q51">
         <v>0</v>
       </c>
       <c r="R51">
-        <v>27.82</v>
+        <v>7.69</v>
       </c>
       <c r="S51">
-        <v>0.12</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="52" spans="1:19">
@@ -4263,40 +4263,40 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <v>45801</v>
+        <v>109397</v>
       </c>
       <c r="I52">
         <v>100</v>
       </c>
       <c r="J52">
-        <v>59.47</v>
+        <v>59.42</v>
       </c>
       <c r="K52">
-        <v>0.74</v>
+        <v>1.77</v>
       </c>
       <c r="L52">
-        <v>0.26</v>
+        <v>0.11</v>
       </c>
       <c r="M52">
-        <v>770.15</v>
+        <v>1841.08</v>
       </c>
       <c r="N52">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="O52">
-        <v>199.44</v>
+        <v>199.53</v>
       </c>
       <c r="P52">
-        <v>45801</v>
+        <v>109397</v>
       </c>
       <c r="Q52">
         <v>0</v>
       </c>
       <c r="R52">
-        <v>0.59</v>
+        <v>0.43</v>
       </c>
       <c r="S52">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:19">
@@ -4322,40 +4322,40 @@
         <v>2</v>
       </c>
       <c r="H53">
-        <v>51100</v>
+        <v>109296</v>
       </c>
       <c r="I53">
         <v>100</v>
       </c>
       <c r="J53">
-        <v>59.48</v>
+        <v>59.78</v>
       </c>
       <c r="K53">
-        <v>0.83</v>
+        <v>1.77</v>
       </c>
       <c r="L53">
-        <v>0.23</v>
+        <v>0.11</v>
       </c>
       <c r="M53">
-        <v>859.11</v>
+        <v>1828.3</v>
       </c>
       <c r="N53">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="O53">
-        <v>199.27</v>
+        <v>199.55</v>
       </c>
       <c r="P53">
-        <v>51101</v>
+        <v>109296</v>
       </c>
       <c r="Q53">
         <v>0</v>
       </c>
       <c r="R53">
-        <v>0.64</v>
+        <v>0.42</v>
       </c>
       <c r="S53">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="54" spans="1:19">
@@ -4381,40 +4381,40 @@
         <v>3</v>
       </c>
       <c r="H54">
-        <v>45285</v>
+        <v>109925</v>
       </c>
       <c r="I54">
         <v>100</v>
       </c>
       <c r="J54">
-        <v>59.34</v>
+        <v>59.8</v>
       </c>
       <c r="K54">
-        <v>0.73</v>
+        <v>1.78</v>
       </c>
       <c r="L54">
-        <v>0.26</v>
+        <v>0.11</v>
       </c>
       <c r="M54">
-        <v>763.14</v>
+        <v>1838.21</v>
       </c>
       <c r="N54">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="O54">
-        <v>199.32</v>
+        <v>199.53</v>
       </c>
       <c r="P54">
-        <v>45285</v>
+        <v>109925</v>
       </c>
       <c r="Q54">
         <v>0</v>
       </c>
       <c r="R54">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="S54">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="55" spans="1:19">
@@ -4440,40 +4440,40 @@
         <v>4</v>
       </c>
       <c r="H55">
-        <v>44930</v>
+        <v>107381</v>
       </c>
       <c r="I55">
         <v>100</v>
       </c>
       <c r="J55">
-        <v>59.44</v>
+        <v>59.7</v>
       </c>
       <c r="K55">
-        <v>0.73</v>
+        <v>1.74</v>
       </c>
       <c r="L55">
-        <v>0.26</v>
+        <v>0.11</v>
       </c>
       <c r="M55">
-        <v>755.89</v>
+        <v>1798.68</v>
       </c>
       <c r="N55">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="O55">
-        <v>199.54</v>
+        <v>199.61</v>
       </c>
       <c r="P55">
-        <v>44930</v>
+        <v>107381</v>
       </c>
       <c r="Q55">
         <v>0</v>
       </c>
       <c r="R55">
-        <v>0.65</v>
+        <v>0.47</v>
       </c>
       <c r="S55">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="56" spans="1:19">
@@ -4499,40 +4499,40 @@
         <v>5</v>
       </c>
       <c r="H56">
-        <v>46038</v>
+        <v>111303</v>
       </c>
       <c r="I56">
         <v>100</v>
       </c>
       <c r="J56">
-        <v>59.55</v>
+        <v>59.81</v>
       </c>
       <c r="K56">
-        <v>0.75</v>
+        <v>1.8</v>
       </c>
       <c r="L56">
-        <v>0.26</v>
+        <v>0.11</v>
       </c>
       <c r="M56">
-        <v>773.1</v>
+        <v>1860.94</v>
       </c>
       <c r="N56">
+        <v>0.03</v>
+      </c>
+      <c r="O56">
+        <v>199.44</v>
+      </c>
+      <c r="P56">
+        <v>111303</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0.37</v>
+      </c>
+      <c r="S56">
         <v>0.01</v>
-      </c>
-      <c r="O56">
-        <v>199.35</v>
-      </c>
-      <c r="P56">
-        <v>46038</v>
-      </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
-      <c r="R56">
-        <v>0.59</v>
-      </c>
-      <c r="S56">
-        <v>0.05</v>
       </c>
     </row>
     <row r="57" spans="1:19">
@@ -4558,40 +4558,40 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>45432</v>
+        <v>111965</v>
       </c>
       <c r="I57">
         <v>100</v>
       </c>
       <c r="J57">
-        <v>59.53</v>
+        <v>59.75</v>
       </c>
       <c r="K57">
-        <v>0.74</v>
+        <v>1.82</v>
       </c>
       <c r="L57">
-        <v>0.52</v>
+        <v>0.21</v>
       </c>
       <c r="M57">
-        <v>763.1799999999999</v>
+        <v>1873.89</v>
       </c>
       <c r="N57">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="O57">
-        <v>398.44</v>
+        <v>398.79</v>
       </c>
       <c r="P57">
-        <v>45432</v>
+        <v>111965</v>
       </c>
       <c r="Q57">
         <v>0</v>
       </c>
       <c r="R57">
-        <v>1.01</v>
+        <v>0.5</v>
       </c>
       <c r="S57">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -4617,40 +4617,40 @@
         <v>2</v>
       </c>
       <c r="H58">
-        <v>46993</v>
+        <v>111319</v>
       </c>
       <c r="I58">
         <v>100</v>
       </c>
       <c r="J58">
-        <v>59.38</v>
+        <v>59.75</v>
       </c>
       <c r="K58">
-        <v>0.76</v>
+        <v>1.8</v>
       </c>
       <c r="L58">
-        <v>0.5</v>
+        <v>0.21</v>
       </c>
       <c r="M58">
-        <v>791.39</v>
+        <v>1863.08</v>
       </c>
       <c r="N58">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="O58">
-        <v>397.9</v>
+        <v>398.79</v>
       </c>
       <c r="P58">
-        <v>46993</v>
+        <v>111319</v>
       </c>
       <c r="Q58">
         <v>0</v>
       </c>
       <c r="R58">
-        <v>0.96</v>
+        <v>0.52</v>
       </c>
       <c r="S58">
-        <v>0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:19">
@@ -4676,40 +4676,40 @@
         <v>3</v>
       </c>
       <c r="H59">
-        <v>46996</v>
+        <v>110520</v>
       </c>
       <c r="I59">
         <v>100</v>
       </c>
       <c r="J59">
-        <v>59.57</v>
+        <v>59.73</v>
       </c>
       <c r="K59">
-        <v>0.76</v>
+        <v>1.79</v>
       </c>
       <c r="L59">
-        <v>0.5</v>
+        <v>0.22</v>
       </c>
       <c r="M59">
-        <v>788.92</v>
+        <v>1850.33</v>
       </c>
       <c r="N59">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="O59">
-        <v>398.27</v>
+        <v>398.81</v>
       </c>
       <c r="P59">
-        <v>46996</v>
+        <v>110520</v>
       </c>
       <c r="Q59">
         <v>0</v>
       </c>
       <c r="R59">
-        <v>1.21</v>
+        <v>0.53</v>
       </c>
       <c r="S59">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="60" spans="1:19">
@@ -4735,40 +4735,40 @@
         <v>4</v>
       </c>
       <c r="H60">
-        <v>47212</v>
+        <v>110093</v>
       </c>
       <c r="I60">
         <v>100</v>
       </c>
       <c r="J60">
-        <v>59.61</v>
+        <v>59.73</v>
       </c>
       <c r="K60">
-        <v>0.77</v>
+        <v>1.78</v>
       </c>
       <c r="L60">
-        <v>0.5</v>
+        <v>0.22</v>
       </c>
       <c r="M60">
-        <v>792.01</v>
+        <v>1843.18</v>
       </c>
       <c r="N60">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="O60">
-        <v>396.98</v>
+        <v>398.71</v>
       </c>
       <c r="P60">
-        <v>47212</v>
+        <v>110093</v>
       </c>
       <c r="Q60">
         <v>0</v>
       </c>
       <c r="R60">
-        <v>0.97</v>
+        <v>0.7</v>
       </c>
       <c r="S60">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="61" spans="1:19">
@@ -4794,40 +4794,40 @@
         <v>5</v>
       </c>
       <c r="H61">
-        <v>45593</v>
+        <v>106679</v>
       </c>
       <c r="I61">
         <v>100</v>
       </c>
       <c r="J61">
-        <v>59.62</v>
+        <v>59.67</v>
       </c>
       <c r="K61">
-        <v>0.74</v>
+        <v>1.73</v>
       </c>
       <c r="L61">
-        <v>0.52</v>
+        <v>0.22</v>
       </c>
       <c r="M61">
-        <v>764.73</v>
+        <v>1787.82</v>
       </c>
       <c r="N61">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="O61">
-        <v>397.97</v>
+        <v>398.58</v>
       </c>
       <c r="P61">
-        <v>45594</v>
+        <v>106679</v>
       </c>
       <c r="Q61">
         <v>0</v>
       </c>
       <c r="R61">
-        <v>0.9</v>
+        <v>0.62</v>
       </c>
       <c r="S61">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:19">
@@ -4853,40 +4853,40 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <v>43137</v>
+        <v>108506</v>
       </c>
       <c r="I62">
         <v>100</v>
       </c>
       <c r="J62">
-        <v>59.23</v>
+        <v>59.67</v>
       </c>
       <c r="K62">
-        <v>0.7</v>
+        <v>1.76</v>
       </c>
       <c r="L62">
-        <v>0.82</v>
+        <v>0.33</v>
       </c>
       <c r="M62">
-        <v>728.3</v>
+        <v>1818.43</v>
       </c>
       <c r="N62">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="O62">
-        <v>595.66</v>
+        <v>597.52</v>
       </c>
       <c r="P62">
-        <v>43137</v>
+        <v>108506</v>
       </c>
       <c r="Q62">
         <v>0</v>
       </c>
       <c r="R62">
-        <v>1.2</v>
+        <v>0.65</v>
       </c>
       <c r="S62">
-        <v>0.28</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="63" spans="1:19">
@@ -4912,40 +4912,40 @@
         <v>2</v>
       </c>
       <c r="H63">
-        <v>46195</v>
+        <v>110179</v>
       </c>
       <c r="I63">
         <v>100</v>
       </c>
       <c r="J63">
-        <v>59.29</v>
+        <v>59.76</v>
       </c>
       <c r="K63">
-        <v>0.75</v>
+        <v>1.79</v>
       </c>
       <c r="L63">
-        <v>0.76</v>
+        <v>0.32</v>
       </c>
       <c r="M63">
-        <v>779.14</v>
+        <v>1843.69</v>
       </c>
       <c r="N63">
+        <v>0.03</v>
+      </c>
+      <c r="O63">
+        <v>597.04</v>
+      </c>
+      <c r="P63">
+        <v>110179</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0.68</v>
+      </c>
+      <c r="S63">
         <v>0.01</v>
-      </c>
-      <c r="O63">
-        <v>594.98</v>
-      </c>
-      <c r="P63">
-        <v>46195</v>
-      </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
-      <c r="R63">
-        <v>1.3</v>
-      </c>
-      <c r="S63">
-        <v>0.13</v>
       </c>
     </row>
     <row r="64" spans="1:19">
@@ -4971,40 +4971,40 @@
         <v>3</v>
       </c>
       <c r="H64">
-        <v>47380</v>
+        <v>104747</v>
       </c>
       <c r="I64">
         <v>100</v>
       </c>
       <c r="J64">
-        <v>59.33</v>
+        <v>59.68</v>
       </c>
       <c r="K64">
-        <v>0.77</v>
+        <v>1.7</v>
       </c>
       <c r="L64">
-        <v>0.75</v>
+        <v>0.34</v>
       </c>
       <c r="M64">
-        <v>798.58</v>
+        <v>1755.14</v>
       </c>
       <c r="N64">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="O64">
-        <v>595.77</v>
+        <v>597.27</v>
       </c>
       <c r="P64">
-        <v>47380</v>
+        <v>104747</v>
       </c>
       <c r="Q64">
         <v>0</v>
       </c>
       <c r="R64">
-        <v>1.29</v>
+        <v>0.71</v>
       </c>
       <c r="S64">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="65" spans="1:19">
@@ -5030,40 +5030,40 @@
         <v>4</v>
       </c>
       <c r="H65">
-        <v>50683</v>
+        <v>108067</v>
       </c>
       <c r="I65">
         <v>100</v>
       </c>
       <c r="J65">
-        <v>59.52</v>
+        <v>59.64</v>
       </c>
       <c r="K65">
-        <v>0.82</v>
+        <v>1.75</v>
       </c>
       <c r="L65">
-        <v>0.7</v>
+        <v>0.33</v>
       </c>
       <c r="M65">
-        <v>851.53</v>
+        <v>1811.99</v>
       </c>
       <c r="N65">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="O65">
-        <v>596.14</v>
+        <v>597.63</v>
       </c>
       <c r="P65">
-        <v>50683</v>
+        <v>108067</v>
       </c>
       <c r="Q65">
         <v>0</v>
       </c>
       <c r="R65">
-        <v>1.16</v>
+        <v>0.67</v>
       </c>
       <c r="S65">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="66" spans="1:19">
@@ -5089,37 +5089,37 @@
         <v>5</v>
       </c>
       <c r="H66">
-        <v>51703</v>
+        <v>105350</v>
       </c>
       <c r="I66">
         <v>100</v>
       </c>
       <c r="J66">
-        <v>59.41</v>
+        <v>59.67</v>
       </c>
       <c r="K66">
-        <v>0.84</v>
+        <v>1.71</v>
       </c>
       <c r="L66">
-        <v>0.68</v>
+        <v>0.34</v>
       </c>
       <c r="M66">
-        <v>870.27</v>
+        <v>1765.54</v>
       </c>
       <c r="N66">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="O66">
-        <v>595.8099999999999</v>
+        <v>597.52</v>
       </c>
       <c r="P66">
-        <v>51703</v>
+        <v>105350</v>
       </c>
       <c r="Q66">
         <v>0</v>
       </c>
       <c r="R66">
-        <v>1.06</v>
+        <v>0.75</v>
       </c>
       <c r="S66">
         <v>0.01</v>
@@ -5148,37 +5148,37 @@
         <v>1</v>
       </c>
       <c r="H67">
-        <v>51890</v>
+        <v>103895</v>
       </c>
       <c r="I67">
         <v>100</v>
       </c>
       <c r="J67">
-        <v>59.27</v>
+        <v>59.68</v>
       </c>
       <c r="K67">
-        <v>0.84</v>
+        <v>1.68</v>
       </c>
       <c r="L67">
-        <v>0.9</v>
+        <v>0.45</v>
       </c>
       <c r="M67">
-        <v>875.49</v>
+        <v>1740.87</v>
       </c>
       <c r="N67">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="O67">
-        <v>791.1900000000001</v>
+        <v>786.39</v>
       </c>
       <c r="P67">
-        <v>51890</v>
+        <v>103895</v>
       </c>
       <c r="Q67">
         <v>0</v>
       </c>
       <c r="R67">
-        <v>1.94</v>
+        <v>3.2</v>
       </c>
       <c r="S67">
         <v>0</v>
@@ -5207,37 +5207,37 @@
         <v>2</v>
       </c>
       <c r="H68">
-        <v>51353</v>
+        <v>108654</v>
       </c>
       <c r="I68">
         <v>100</v>
       </c>
       <c r="J68">
-        <v>59.38</v>
+        <v>59.64</v>
       </c>
       <c r="K68">
-        <v>0.83</v>
+        <v>1.76</v>
       </c>
       <c r="L68">
-        <v>0.92</v>
+        <v>0.44</v>
       </c>
       <c r="M68">
-        <v>864.8200000000001</v>
+        <v>1821.83</v>
       </c>
       <c r="N68">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="O68">
-        <v>792.87</v>
+        <v>794.4400000000001</v>
       </c>
       <c r="P68">
-        <v>51353</v>
+        <v>108654</v>
       </c>
       <c r="Q68">
         <v>0</v>
       </c>
       <c r="R68">
-        <v>1.83</v>
+        <v>1.07</v>
       </c>
       <c r="S68">
         <v>0</v>
@@ -5266,40 +5266,40 @@
         <v>3</v>
       </c>
       <c r="H69">
-        <v>8114</v>
+        <v>112758</v>
       </c>
       <c r="I69">
-        <v>81.65000000000001</v>
+        <v>100</v>
       </c>
       <c r="J69">
-        <v>17.46</v>
+        <v>59.63</v>
       </c>
       <c r="K69">
-        <v>0.38</v>
+        <v>1.83</v>
       </c>
       <c r="L69">
-        <v>1.6</v>
+        <v>0.42</v>
       </c>
       <c r="M69">
-        <v>464.72</v>
+        <v>1890.96</v>
       </c>
       <c r="N69">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="O69">
-        <v>741.52</v>
+        <v>794.49</v>
       </c>
       <c r="P69">
-        <v>8114</v>
+        <v>112758</v>
       </c>
       <c r="Q69">
-        <v>1823</v>
+        <v>0</v>
       </c>
       <c r="R69">
-        <v>2.96</v>
+        <v>2.11</v>
       </c>
       <c r="S69">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:19">
@@ -5325,37 +5325,37 @@
         <v>4</v>
       </c>
       <c r="H70">
-        <v>114951</v>
+        <v>112374</v>
       </c>
       <c r="I70">
         <v>100</v>
       </c>
       <c r="J70">
-        <v>59.81</v>
+        <v>59.7</v>
       </c>
       <c r="K70">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="L70">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="M70">
-        <v>1921.94</v>
+        <v>1882.31</v>
       </c>
       <c r="N70">
         <v>0.03</v>
       </c>
       <c r="O70">
-        <v>795.99</v>
+        <v>793.09</v>
       </c>
       <c r="P70">
-        <v>114951</v>
+        <v>112374</v>
       </c>
       <c r="Q70">
         <v>0</v>
       </c>
       <c r="R70">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="S70">
         <v>0</v>
@@ -5384,40 +5384,40 @@
         <v>5</v>
       </c>
       <c r="H71">
-        <v>111827</v>
+        <v>111191</v>
       </c>
       <c r="I71">
         <v>100</v>
       </c>
       <c r="J71">
-        <v>59.78</v>
+        <v>59.74</v>
       </c>
       <c r="K71">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="L71">
         <v>0.43</v>
       </c>
       <c r="M71">
-        <v>1870.64</v>
+        <v>1861.25</v>
       </c>
       <c r="N71">
         <v>0.03</v>
       </c>
       <c r="O71">
-        <v>795.3200000000001</v>
+        <v>795.08</v>
       </c>
       <c r="P71">
-        <v>111827</v>
+        <v>111191</v>
       </c>
       <c r="Q71">
         <v>0</v>
       </c>
       <c r="R71">
-        <v>0.78</v>
+        <v>1.63</v>
       </c>
       <c r="S71">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="72" spans="1:19">
@@ -5443,40 +5443,40 @@
         <v>1</v>
       </c>
       <c r="H72">
-        <v>109832</v>
+        <v>110660</v>
       </c>
       <c r="I72">
         <v>100</v>
       </c>
       <c r="J72">
-        <v>59.75</v>
+        <v>59.57</v>
       </c>
       <c r="K72">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="L72">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="M72">
-        <v>1838.19</v>
+        <v>1857.65</v>
       </c>
       <c r="N72">
         <v>0.03</v>
       </c>
       <c r="O72">
-        <v>994.08</v>
+        <v>988.35</v>
       </c>
       <c r="P72">
-        <v>109832</v>
+        <v>110660</v>
       </c>
       <c r="Q72">
         <v>0</v>
       </c>
       <c r="R72">
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="S72">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:19">
@@ -5502,40 +5502,40 @@
         <v>2</v>
       </c>
       <c r="H73">
-        <v>104634</v>
+        <v>111070</v>
       </c>
       <c r="I73">
         <v>100</v>
       </c>
       <c r="J73">
-        <v>59.28</v>
+        <v>59.64</v>
       </c>
       <c r="K73">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="L73">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="M73">
-        <v>1765.08</v>
+        <v>1862.34</v>
       </c>
       <c r="N73">
         <v>0.03</v>
       </c>
       <c r="O73">
-        <v>993.28</v>
+        <v>991.62</v>
       </c>
       <c r="P73">
-        <v>104634</v>
+        <v>111070</v>
       </c>
       <c r="Q73">
         <v>0</v>
       </c>
       <c r="R73">
-        <v>0.98</v>
+        <v>1.85</v>
       </c>
       <c r="S73">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="74" spans="1:19">
@@ -5561,40 +5561,40 @@
         <v>3</v>
       </c>
       <c r="H74">
-        <v>51973</v>
+        <v>103198</v>
       </c>
       <c r="I74">
         <v>100</v>
       </c>
       <c r="J74">
-        <v>59.72</v>
+        <v>59.56</v>
       </c>
       <c r="K74">
-        <v>0.84</v>
+        <v>1.67</v>
       </c>
       <c r="L74">
-        <v>1.14</v>
+        <v>0.57</v>
       </c>
       <c r="M74">
-        <v>870.28</v>
+        <v>1732.67</v>
       </c>
       <c r="N74">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="O74">
-        <v>989.65</v>
+        <v>991.62</v>
       </c>
       <c r="P74">
-        <v>51973</v>
+        <v>103198</v>
       </c>
       <c r="Q74">
         <v>0</v>
       </c>
       <c r="R74">
-        <v>1.76</v>
+        <v>1.38</v>
       </c>
       <c r="S74">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="75" spans="1:19">
@@ -5620,40 +5620,40 @@
         <v>4</v>
       </c>
       <c r="H75">
-        <v>49613</v>
+        <v>111183</v>
       </c>
       <c r="I75">
         <v>100</v>
       </c>
       <c r="J75">
-        <v>59.34</v>
+        <v>59.64</v>
       </c>
       <c r="K75">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="L75">
-        <v>1.18</v>
+        <v>0.53</v>
       </c>
       <c r="M75">
-        <v>836.08</v>
+        <v>1864.24</v>
       </c>
       <c r="N75">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="O75">
-        <v>988.29</v>
+        <v>993.5599999999999</v>
       </c>
       <c r="P75">
-        <v>49613</v>
+        <v>111183</v>
       </c>
       <c r="Q75">
         <v>0</v>
       </c>
       <c r="R75">
-        <v>2.37</v>
+        <v>0.89</v>
       </c>
       <c r="S75">
-        <v>0.04</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="76" spans="1:19">
@@ -5679,40 +5679,40 @@
         <v>5</v>
       </c>
       <c r="H76">
-        <v>49704</v>
+        <v>110106</v>
       </c>
       <c r="I76">
         <v>100</v>
       </c>
       <c r="J76">
-        <v>59.32</v>
+        <v>59.73</v>
       </c>
       <c r="K76">
-        <v>0.8100000000000001</v>
+        <v>1.79</v>
       </c>
       <c r="L76">
-        <v>1.18</v>
+        <v>0.54</v>
       </c>
       <c r="M76">
-        <v>837.9</v>
+        <v>1843.4</v>
       </c>
       <c r="N76">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="O76">
-        <v>987.92</v>
+        <v>991.14</v>
       </c>
       <c r="P76">
-        <v>49704</v>
+        <v>110106</v>
       </c>
       <c r="Q76">
         <v>0</v>
       </c>
       <c r="R76">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="S76">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:19">
@@ -5738,40 +5738,40 @@
         <v>1</v>
       </c>
       <c r="H77">
-        <v>76258</v>
+        <v>144386</v>
       </c>
       <c r="I77">
         <v>100</v>
       </c>
       <c r="J77">
-        <v>59.28</v>
+        <v>59.66</v>
       </c>
       <c r="K77">
-        <v>1.45</v>
+        <v>2.75</v>
       </c>
       <c r="L77">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="M77">
-        <v>1286.4</v>
+        <v>2420.15</v>
       </c>
       <c r="N77">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="O77">
-        <v>199.56</v>
+        <v>199.57</v>
       </c>
       <c r="P77">
-        <v>76258</v>
+        <v>144386</v>
       </c>
       <c r="Q77">
         <v>0</v>
       </c>
       <c r="R77">
-        <v>0.29</v>
+        <v>0.41</v>
       </c>
       <c r="S77">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="78" spans="1:19">
@@ -5797,40 +5797,40 @@
         <v>2</v>
       </c>
       <c r="H78">
-        <v>74257</v>
+        <v>136033</v>
       </c>
       <c r="I78">
         <v>100</v>
       </c>
       <c r="J78">
-        <v>59.38</v>
+        <v>59.65</v>
       </c>
       <c r="K78">
-        <v>1.42</v>
+        <v>2.59</v>
       </c>
       <c r="L78">
-        <v>0.16</v>
+        <v>0.09</v>
       </c>
       <c r="M78">
-        <v>1250.54</v>
+        <v>2280.52</v>
       </c>
       <c r="N78">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="O78">
-        <v>199.59</v>
+        <v>199.38</v>
       </c>
       <c r="P78">
-        <v>74257</v>
+        <v>136033</v>
       </c>
       <c r="Q78">
         <v>0</v>
       </c>
       <c r="R78">
-        <v>0.32</v>
+        <v>0.29</v>
       </c>
       <c r="S78">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="79" spans="1:19">
@@ -5856,40 +5856,40 @@
         <v>3</v>
       </c>
       <c r="H79">
-        <v>73554</v>
+        <v>126064</v>
       </c>
       <c r="I79">
         <v>100</v>
       </c>
       <c r="J79">
-        <v>59.13</v>
+        <v>59.72</v>
       </c>
       <c r="K79">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="L79">
-        <v>0.16</v>
+        <v>0.09</v>
       </c>
       <c r="M79">
-        <v>1243.94</v>
+        <v>2110.92</v>
       </c>
       <c r="N79">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="O79">
-        <v>199.61</v>
+        <v>199</v>
       </c>
       <c r="P79">
-        <v>73554</v>
+        <v>126064</v>
       </c>
       <c r="Q79">
         <v>0</v>
       </c>
       <c r="R79">
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="S79">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="80" spans="1:19">
@@ -5915,40 +5915,40 @@
         <v>4</v>
       </c>
       <c r="H80">
-        <v>76374</v>
+        <v>151412</v>
       </c>
       <c r="I80">
         <v>100</v>
       </c>
       <c r="J80">
-        <v>59.42</v>
+        <v>59.43</v>
       </c>
       <c r="K80">
-        <v>1.46</v>
+        <v>2.89</v>
       </c>
       <c r="L80">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="M80">
-        <v>1285.32</v>
+        <v>2547.74</v>
       </c>
       <c r="N80">
+        <v>0.05</v>
+      </c>
+      <c r="O80">
+        <v>199.25</v>
+      </c>
+      <c r="P80">
+        <v>151412</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0.33</v>
+      </c>
+      <c r="S80">
         <v>0.02</v>
-      </c>
-      <c r="O80">
-        <v>199.62</v>
-      </c>
-      <c r="P80">
-        <v>76374</v>
-      </c>
-      <c r="Q80">
-        <v>0</v>
-      </c>
-      <c r="R80">
-        <v>0.34</v>
-      </c>
-      <c r="S80">
-        <v>0.09</v>
       </c>
     </row>
     <row r="81" spans="1:19">
@@ -5974,40 +5974,40 @@
         <v>5</v>
       </c>
       <c r="H81">
-        <v>82665</v>
+        <v>148115</v>
       </c>
       <c r="I81">
         <v>100</v>
       </c>
       <c r="J81">
-        <v>59.5</v>
+        <v>59.59</v>
       </c>
       <c r="K81">
-        <v>1.58</v>
+        <v>2.83</v>
       </c>
       <c r="L81">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="M81">
-        <v>1389.33</v>
+        <v>2485.57</v>
       </c>
       <c r="N81">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="O81">
-        <v>199.64</v>
+        <v>199.26</v>
       </c>
       <c r="P81">
-        <v>82665</v>
+        <v>148115</v>
       </c>
       <c r="Q81">
         <v>0</v>
       </c>
       <c r="R81">
-        <v>0.32</v>
+        <v>0.46</v>
       </c>
       <c r="S81">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="82" spans="1:19">
@@ -6033,40 +6033,40 @@
         <v>1</v>
       </c>
       <c r="H82">
-        <v>79934</v>
+        <v>146396</v>
       </c>
       <c r="I82">
         <v>100</v>
       </c>
       <c r="J82">
-        <v>59.38</v>
+        <v>59.61</v>
       </c>
       <c r="K82">
-        <v>1.52</v>
+        <v>2.79</v>
       </c>
       <c r="L82">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="M82">
-        <v>1346.14</v>
+        <v>2455.9</v>
       </c>
       <c r="N82">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="O82">
         <v>398.76</v>
       </c>
       <c r="P82">
-        <v>79934</v>
+        <v>146396</v>
       </c>
       <c r="Q82">
         <v>0</v>
       </c>
       <c r="R82">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="S82">
-        <v>0.16</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="83" spans="1:19">
@@ -6092,40 +6092,40 @@
         <v>2</v>
       </c>
       <c r="H83">
-        <v>82562</v>
+        <v>159832</v>
       </c>
       <c r="I83">
         <v>100</v>
       </c>
       <c r="J83">
-        <v>59.44</v>
+        <v>59.61</v>
       </c>
       <c r="K83">
-        <v>1.57</v>
+        <v>3.05</v>
       </c>
       <c r="L83">
-        <v>0.29</v>
+        <v>0.15</v>
       </c>
       <c r="M83">
-        <v>1389</v>
+        <v>2681.3</v>
       </c>
       <c r="N83">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="O83">
-        <v>398.6</v>
+        <v>399.14</v>
       </c>
       <c r="P83">
-        <v>82562</v>
+        <v>159832</v>
       </c>
       <c r="Q83">
         <v>0</v>
       </c>
       <c r="R83">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="S83">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="84" spans="1:19">
@@ -6151,40 +6151,40 @@
         <v>3</v>
       </c>
       <c r="H84">
-        <v>80820</v>
+        <v>145492</v>
       </c>
       <c r="I84">
         <v>100</v>
       </c>
       <c r="J84">
-        <v>59.46</v>
+        <v>59.52</v>
       </c>
       <c r="K84">
-        <v>1.54</v>
+        <v>2.78</v>
       </c>
       <c r="L84">
-        <v>0.29</v>
+        <v>0.16</v>
       </c>
       <c r="M84">
-        <v>1359.23</v>
+        <v>2444.42</v>
       </c>
       <c r="N84">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="O84">
-        <v>398.64</v>
+        <v>398.72</v>
       </c>
       <c r="P84">
-        <v>80820</v>
+        <v>145492</v>
       </c>
       <c r="Q84">
         <v>0</v>
       </c>
       <c r="R84">
-        <v>0.6899999999999999</v>
+        <v>0.38</v>
       </c>
       <c r="S84">
-        <v>0.16</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:19">
@@ -6210,40 +6210,40 @@
         <v>4</v>
       </c>
       <c r="H85">
-        <v>82504</v>
+        <v>149961</v>
       </c>
       <c r="I85">
         <v>100</v>
       </c>
       <c r="J85">
-        <v>59.4</v>
+        <v>59.63</v>
       </c>
       <c r="K85">
-        <v>1.57</v>
+        <v>2.86</v>
       </c>
       <c r="L85">
-        <v>0.29</v>
+        <v>0.16</v>
       </c>
       <c r="M85">
-        <v>1388.96</v>
+        <v>2514.86</v>
       </c>
       <c r="N85">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="O85">
-        <v>398.23</v>
+        <v>398.71</v>
       </c>
       <c r="P85">
-        <v>82504</v>
+        <v>149961</v>
       </c>
       <c r="Q85">
         <v>0</v>
       </c>
       <c r="R85">
-        <v>0.52</v>
+        <v>0.37</v>
       </c>
       <c r="S85">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="86" spans="1:19">
@@ -6269,40 +6269,40 @@
         <v>5</v>
       </c>
       <c r="H86">
-        <v>80371</v>
+        <v>153663</v>
       </c>
       <c r="I86">
         <v>100</v>
       </c>
       <c r="J86">
-        <v>59.38</v>
+        <v>59.67</v>
       </c>
       <c r="K86">
-        <v>1.53</v>
+        <v>2.93</v>
       </c>
       <c r="L86">
-        <v>0.29</v>
+        <v>0.15</v>
       </c>
       <c r="M86">
-        <v>1353.5</v>
+        <v>2575.21</v>
       </c>
       <c r="N86">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="O86">
-        <v>398.41</v>
+        <v>398.5</v>
       </c>
       <c r="P86">
-        <v>80371</v>
+        <v>153663</v>
       </c>
       <c r="Q86">
         <v>0</v>
       </c>
       <c r="R86">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="S86">
-        <v>0.18</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="87" spans="1:19">
@@ -6328,40 +6328,40 @@
         <v>1</v>
       </c>
       <c r="H87">
-        <v>81357</v>
+        <v>135743</v>
       </c>
       <c r="I87">
         <v>100</v>
       </c>
       <c r="J87">
-        <v>59.28</v>
+        <v>59.6</v>
       </c>
       <c r="K87">
-        <v>1.55</v>
+        <v>2.59</v>
       </c>
       <c r="L87">
-        <v>0.43</v>
+        <v>0.26</v>
       </c>
       <c r="M87">
-        <v>1372.42</v>
+        <v>2277.57</v>
       </c>
       <c r="N87">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="O87">
-        <v>596.71</v>
+        <v>597.96</v>
       </c>
       <c r="P87">
-        <v>81357</v>
+        <v>135743</v>
       </c>
       <c r="Q87">
         <v>0</v>
       </c>
       <c r="R87">
-        <v>0.6899999999999999</v>
+        <v>2.86</v>
       </c>
       <c r="S87">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="88" spans="1:19">
@@ -6387,40 +6387,40 @@
         <v>2</v>
       </c>
       <c r="H88">
-        <v>86650</v>
+        <v>149142</v>
       </c>
       <c r="I88">
         <v>100</v>
       </c>
       <c r="J88">
-        <v>59.42</v>
+        <v>59.61</v>
       </c>
       <c r="K88">
-        <v>1.65</v>
+        <v>2.84</v>
       </c>
       <c r="L88">
-        <v>0.41</v>
+        <v>0.24</v>
       </c>
       <c r="M88">
-        <v>1458.26</v>
+        <v>2501.96</v>
       </c>
       <c r="N88">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="O88">
-        <v>596.86</v>
+        <v>597.96</v>
       </c>
       <c r="P88">
-        <v>86650</v>
+        <v>149142</v>
       </c>
       <c r="Q88">
         <v>0</v>
       </c>
       <c r="R88">
-        <v>0.6</v>
+        <v>1.71</v>
       </c>
       <c r="S88">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="89" spans="1:19">
@@ -6446,40 +6446,40 @@
         <v>3</v>
       </c>
       <c r="H89">
-        <v>76982</v>
+        <v>141223</v>
       </c>
       <c r="I89">
         <v>100</v>
       </c>
       <c r="J89">
-        <v>59.36</v>
+        <v>59.56</v>
       </c>
       <c r="K89">
-        <v>1.47</v>
+        <v>2.69</v>
       </c>
       <c r="L89">
-        <v>0.46</v>
+        <v>0.25</v>
       </c>
       <c r="M89">
-        <v>1296.87</v>
+        <v>2371.1</v>
       </c>
       <c r="N89">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="O89">
-        <v>596.5</v>
+        <v>596.89</v>
       </c>
       <c r="P89">
-        <v>76982</v>
+        <v>141223</v>
       </c>
       <c r="Q89">
         <v>0</v>
       </c>
       <c r="R89">
-        <v>0.63</v>
+        <v>4.49</v>
       </c>
       <c r="S89">
-        <v>0.23</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="90" spans="1:19">
@@ -6505,40 +6505,40 @@
         <v>4</v>
       </c>
       <c r="H90">
-        <v>79706</v>
+        <v>126989</v>
       </c>
       <c r="I90">
         <v>100</v>
       </c>
       <c r="J90">
-        <v>59.28</v>
+        <v>59.53</v>
       </c>
       <c r="K90">
-        <v>1.52</v>
+        <v>2.42</v>
       </c>
       <c r="L90">
-        <v>0.44</v>
+        <v>0.28</v>
       </c>
       <c r="M90">
-        <v>1344.57</v>
+        <v>2133.19</v>
       </c>
       <c r="N90">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="O90">
-        <v>596.91</v>
+        <v>597.16</v>
       </c>
       <c r="P90">
-        <v>79706</v>
+        <v>126989</v>
       </c>
       <c r="Q90">
         <v>0</v>
       </c>
       <c r="R90">
-        <v>0.73</v>
+        <v>8.58</v>
       </c>
       <c r="S90">
-        <v>0.22</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="91" spans="1:19">
@@ -6564,40 +6564,40 @@
         <v>5</v>
       </c>
       <c r="H91">
-        <v>82781</v>
+        <v>141746</v>
       </c>
       <c r="I91">
         <v>100</v>
       </c>
       <c r="J91">
-        <v>59.31</v>
+        <v>59.56</v>
       </c>
       <c r="K91">
-        <v>1.58</v>
+        <v>2.7</v>
       </c>
       <c r="L91">
-        <v>0.43</v>
+        <v>0.25</v>
       </c>
       <c r="M91">
-        <v>1395.73</v>
+        <v>2379.89</v>
       </c>
       <c r="N91">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="O91">
-        <v>597.72</v>
+        <v>597.54</v>
       </c>
       <c r="P91">
-        <v>82781</v>
+        <v>141746</v>
       </c>
       <c r="Q91">
         <v>0</v>
       </c>
       <c r="R91">
-        <v>0.64</v>
+        <v>4.36</v>
       </c>
       <c r="S91">
-        <v>0.21</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="92" spans="1:19">
@@ -6623,40 +6623,40 @@
         <v>1</v>
       </c>
       <c r="H92">
-        <v>77417</v>
+        <v>143237</v>
       </c>
       <c r="I92">
         <v>100</v>
       </c>
       <c r="J92">
-        <v>59.78</v>
+        <v>59.52</v>
       </c>
       <c r="K92">
-        <v>1.48</v>
+        <v>2.73</v>
       </c>
       <c r="L92">
-        <v>0.61</v>
+        <v>0.33</v>
       </c>
       <c r="M92">
-        <v>1295.03</v>
+        <v>2406.54</v>
       </c>
       <c r="N92">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="O92">
-        <v>795.6</v>
+        <v>792.95</v>
       </c>
       <c r="P92">
-        <v>77417</v>
+        <v>143237</v>
       </c>
       <c r="Q92">
         <v>0</v>
       </c>
       <c r="R92">
-        <v>0.9</v>
+        <v>7.39</v>
       </c>
       <c r="S92">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:19">
@@ -6682,40 +6682,40 @@
         <v>2</v>
       </c>
       <c r="H93">
-        <v>78367</v>
+        <v>123996</v>
       </c>
       <c r="I93">
         <v>100</v>
       </c>
       <c r="J93">
-        <v>59.39</v>
+        <v>59.35</v>
       </c>
       <c r="K93">
-        <v>1.49</v>
+        <v>2.37</v>
       </c>
       <c r="L93">
-        <v>0.6</v>
+        <v>0.38</v>
       </c>
       <c r="M93">
-        <v>1319.53</v>
+        <v>2089.23</v>
       </c>
       <c r="N93">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="O93">
-        <v>794.61</v>
+        <v>791.85</v>
       </c>
       <c r="P93">
-        <v>78367</v>
+        <v>123996</v>
       </c>
       <c r="Q93">
         <v>0</v>
       </c>
       <c r="R93">
-        <v>0.97</v>
+        <v>5.16</v>
       </c>
       <c r="S93">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="94" spans="1:19">
@@ -6741,40 +6741,40 @@
         <v>3</v>
       </c>
       <c r="H94">
-        <v>79196</v>
+        <v>145365</v>
       </c>
       <c r="I94">
         <v>100</v>
       </c>
       <c r="J94">
-        <v>59.45</v>
+        <v>59.52</v>
       </c>
       <c r="K94">
-        <v>1.51</v>
+        <v>2.77</v>
       </c>
       <c r="L94">
-        <v>0.6</v>
+        <v>0.33</v>
       </c>
       <c r="M94">
-        <v>1332.14</v>
+        <v>2442.29</v>
       </c>
       <c r="N94">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="O94">
-        <v>795.77</v>
+        <v>796</v>
       </c>
       <c r="P94">
-        <v>79196</v>
+        <v>145365</v>
       </c>
       <c r="Q94">
         <v>0</v>
       </c>
       <c r="R94">
-        <v>0.84</v>
+        <v>4.86</v>
       </c>
       <c r="S94">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="95" spans="1:19">
@@ -6800,40 +6800,40 @@
         <v>4</v>
       </c>
       <c r="H95">
-        <v>79003</v>
+        <v>133957</v>
       </c>
       <c r="I95">
         <v>100</v>
       </c>
       <c r="J95">
-        <v>59.27</v>
+        <v>59.49</v>
       </c>
       <c r="K95">
-        <v>1.51</v>
+        <v>2.56</v>
       </c>
       <c r="L95">
-        <v>0.6</v>
+        <v>0.35</v>
       </c>
       <c r="M95">
-        <v>1332.93</v>
+        <v>2251.76</v>
       </c>
       <c r="N95">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="O95">
-        <v>795</v>
+        <v>793.1900000000001</v>
       </c>
       <c r="P95">
-        <v>79003</v>
+        <v>133957</v>
       </c>
       <c r="Q95">
         <v>0</v>
       </c>
       <c r="R95">
-        <v>0.82</v>
+        <v>5.4</v>
       </c>
       <c r="S95">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="96" spans="1:19">
@@ -6859,40 +6859,40 @@
         <v>5</v>
       </c>
       <c r="H96">
-        <v>77364</v>
+        <v>152980</v>
       </c>
       <c r="I96">
         <v>100</v>
       </c>
       <c r="J96">
-        <v>59.28</v>
+        <v>59.58</v>
       </c>
       <c r="K96">
-        <v>1.48</v>
+        <v>2.92</v>
       </c>
       <c r="L96">
-        <v>0.61</v>
+        <v>0.31</v>
       </c>
       <c r="M96">
-        <v>1305.06</v>
+        <v>2567.64</v>
       </c>
       <c r="N96">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="O96">
-        <v>795.08</v>
+        <v>795.9400000000001</v>
       </c>
       <c r="P96">
-        <v>77364</v>
+        <v>152980</v>
       </c>
       <c r="Q96">
         <v>0</v>
       </c>
       <c r="R96">
-        <v>0.89</v>
+        <v>4.84</v>
       </c>
       <c r="S96">
-        <v>0.17</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="97" spans="1:19">
@@ -6918,40 +6918,40 @@
         <v>1</v>
       </c>
       <c r="H97">
-        <v>82038</v>
+        <v>141191</v>
       </c>
       <c r="I97">
         <v>100</v>
       </c>
       <c r="J97">
-        <v>59.41</v>
+        <v>59.55</v>
       </c>
       <c r="K97">
-        <v>1.56</v>
+        <v>2.69</v>
       </c>
       <c r="L97">
-        <v>0.72</v>
+        <v>0.42</v>
       </c>
       <c r="M97">
-        <v>1380.88</v>
+        <v>2370.97</v>
       </c>
       <c r="N97">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="O97">
-        <v>992.5</v>
+        <v>992.14</v>
       </c>
       <c r="P97">
-        <v>82038</v>
+        <v>141191</v>
       </c>
       <c r="Q97">
         <v>0</v>
       </c>
       <c r="R97">
-        <v>1.77</v>
+        <v>5.81</v>
       </c>
       <c r="S97">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="98" spans="1:19">
@@ -6977,40 +6977,40 @@
         <v>2</v>
       </c>
       <c r="H98">
-        <v>74906</v>
+        <v>148797</v>
       </c>
       <c r="I98">
         <v>100</v>
       </c>
       <c r="J98">
-        <v>59.49</v>
+        <v>59.58</v>
       </c>
       <c r="K98">
-        <v>1.43</v>
+        <v>2.84</v>
       </c>
       <c r="L98">
-        <v>0.79</v>
+        <v>0.4</v>
       </c>
       <c r="M98">
-        <v>1259.14</v>
+        <v>2497.43</v>
       </c>
       <c r="N98">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="O98">
-        <v>990.88</v>
+        <v>990.91</v>
       </c>
       <c r="P98">
-        <v>74906</v>
+        <v>148797</v>
       </c>
       <c r="Q98">
         <v>0</v>
       </c>
       <c r="R98">
-        <v>5.33</v>
+        <v>3.99</v>
       </c>
       <c r="S98">
-        <v>0.15</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="99" spans="1:19">
@@ -7036,40 +7036,40 @@
         <v>3</v>
       </c>
       <c r="H99">
-        <v>81588</v>
+        <v>140719</v>
       </c>
       <c r="I99">
         <v>100</v>
       </c>
       <c r="J99">
-        <v>59.95</v>
+        <v>59.6</v>
       </c>
       <c r="K99">
-        <v>1.56</v>
+        <v>2.68</v>
       </c>
       <c r="L99">
-        <v>0.73</v>
+        <v>0.42</v>
       </c>
       <c r="M99">
-        <v>1360.93</v>
+        <v>2361.06</v>
       </c>
       <c r="N99">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="O99">
-        <v>993.02</v>
+        <v>992.1900000000001</v>
       </c>
       <c r="P99">
-        <v>81588</v>
+        <v>140719</v>
       </c>
       <c r="Q99">
         <v>0</v>
       </c>
       <c r="R99">
-        <v>1.07</v>
+        <v>4.96</v>
       </c>
       <c r="S99">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="100" spans="1:19">
@@ -7095,40 +7095,40 @@
         <v>4</v>
       </c>
       <c r="H100">
-        <v>81682</v>
+        <v>126997</v>
       </c>
       <c r="I100">
         <v>100</v>
       </c>
       <c r="J100">
-        <v>59.33</v>
+        <v>59.47</v>
       </c>
       <c r="K100">
-        <v>1.56</v>
+        <v>2.42</v>
       </c>
       <c r="L100">
-        <v>0.72</v>
+        <v>0.46</v>
       </c>
       <c r="M100">
-        <v>1376.74</v>
+        <v>2135.48</v>
       </c>
       <c r="N100">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="O100">
-        <v>993.27</v>
+        <v>988.15</v>
       </c>
       <c r="P100">
-        <v>81682</v>
+        <v>126997</v>
       </c>
       <c r="Q100">
         <v>0</v>
       </c>
       <c r="R100">
-        <v>1.02</v>
+        <v>9.15</v>
       </c>
       <c r="S100">
-        <v>0.29</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="101" spans="1:19">
@@ -7154,40 +7154,40 @@
         <v>5</v>
       </c>
       <c r="H101">
-        <v>81394</v>
+        <v>151816</v>
       </c>
       <c r="I101">
         <v>100</v>
       </c>
       <c r="J101">
-        <v>59.39</v>
+        <v>59.35</v>
       </c>
       <c r="K101">
-        <v>1.55</v>
+        <v>2.9</v>
       </c>
       <c r="L101">
-        <v>0.72</v>
+        <v>0.39</v>
       </c>
       <c r="M101">
-        <v>1370.5</v>
+        <v>2557.98</v>
       </c>
       <c r="N101">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="O101">
-        <v>993.5</v>
+        <v>990.92</v>
       </c>
       <c r="P101">
-        <v>81394</v>
+        <v>151816</v>
       </c>
       <c r="Q101">
         <v>0</v>
       </c>
       <c r="R101">
-        <v>1.79</v>
+        <v>5.51</v>
       </c>
       <c r="S101">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:19">
@@ -7213,40 +7213,40 @@
         <v>1</v>
       </c>
       <c r="H102">
-        <v>199611</v>
+        <v>178978</v>
       </c>
       <c r="I102">
         <v>100</v>
       </c>
       <c r="J102">
-        <v>59.46</v>
+        <v>59.5</v>
       </c>
       <c r="K102">
-        <v>2.86</v>
+        <v>2.56</v>
       </c>
       <c r="L102">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M102">
-        <v>3357.06</v>
+        <v>3008.03</v>
       </c>
       <c r="N102">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="O102">
-        <v>199.68</v>
+        <v>199.01</v>
       </c>
       <c r="P102">
-        <v>199611</v>
+        <v>178978</v>
       </c>
       <c r="Q102">
         <v>0</v>
       </c>
       <c r="R102">
-        <v>0.23</v>
+        <v>0.36</v>
       </c>
       <c r="S102">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:19">
@@ -7272,40 +7272,40 @@
         <v>2</v>
       </c>
       <c r="H103">
-        <v>167467</v>
+        <v>141093</v>
       </c>
       <c r="I103">
         <v>100</v>
       </c>
       <c r="J103">
-        <v>59.41</v>
+        <v>59.59</v>
       </c>
       <c r="K103">
-        <v>2.4</v>
+        <v>2.02</v>
       </c>
       <c r="L103">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="M103">
-        <v>2818.84</v>
+        <v>2367.73</v>
       </c>
       <c r="N103">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="O103">
-        <v>199.66</v>
+        <v>199.38</v>
       </c>
       <c r="P103">
-        <v>167467</v>
+        <v>141093</v>
       </c>
       <c r="Q103">
         <v>0</v>
       </c>
       <c r="R103">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="S103">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="104" spans="1:19">
@@ -7331,37 +7331,37 @@
         <v>3</v>
       </c>
       <c r="H104">
-        <v>178003</v>
+        <v>146004</v>
       </c>
       <c r="I104">
         <v>100</v>
       </c>
       <c r="J104">
-        <v>59.48</v>
+        <v>59.59</v>
       </c>
       <c r="K104">
-        <v>2.55</v>
+        <v>2.09</v>
       </c>
       <c r="L104">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="M104">
-        <v>2992.65</v>
+        <v>2450.14</v>
       </c>
       <c r="N104">
         <v>0.04</v>
       </c>
       <c r="O104">
-        <v>199.67</v>
+        <v>199.37</v>
       </c>
       <c r="P104">
-        <v>178003</v>
+        <v>146004</v>
       </c>
       <c r="Q104">
         <v>0</v>
       </c>
       <c r="R104">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="S104">
         <v>0</v>
@@ -7390,7 +7390,7 @@
         <v>4</v>
       </c>
       <c r="H105">
-        <v>202213</v>
+        <v>135630</v>
       </c>
       <c r="I105">
         <v>100</v>
@@ -7399,31 +7399,31 @@
         <v>59.36</v>
       </c>
       <c r="K105">
-        <v>2.89</v>
+        <v>1.94</v>
       </c>
       <c r="L105">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="M105">
-        <v>3406.55</v>
+        <v>2284.87</v>
       </c>
       <c r="N105">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="O105">
-        <v>199.58</v>
+        <v>199.48</v>
       </c>
       <c r="P105">
-        <v>202213</v>
+        <v>135630</v>
       </c>
       <c r="Q105">
         <v>0</v>
       </c>
       <c r="R105">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="S105">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:19">
@@ -7449,31 +7449,31 @@
         <v>5</v>
       </c>
       <c r="H106">
-        <v>173295</v>
+        <v>140865</v>
       </c>
       <c r="I106">
         <v>100</v>
       </c>
       <c r="J106">
-        <v>59.11</v>
+        <v>59.2</v>
       </c>
       <c r="K106">
-        <v>2.48</v>
+        <v>2.02</v>
       </c>
       <c r="L106">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="M106">
-        <v>2931.74</v>
+        <v>2379.48</v>
       </c>
       <c r="N106">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="O106">
-        <v>199.66</v>
+        <v>199.21</v>
       </c>
       <c r="P106">
-        <v>173295</v>
+        <v>140865</v>
       </c>
       <c r="Q106">
         <v>0</v>
@@ -7482,7 +7482,7 @@
         <v>0.24</v>
       </c>
       <c r="S106">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="107" spans="1:19">
@@ -7508,40 +7508,40 @@
         <v>1</v>
       </c>
       <c r="H107">
-        <v>185551</v>
+        <v>148527</v>
       </c>
       <c r="I107">
         <v>100</v>
       </c>
       <c r="J107">
-        <v>59.38</v>
+        <v>59.27</v>
       </c>
       <c r="K107">
-        <v>2.65</v>
+        <v>2.12</v>
       </c>
       <c r="L107">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="M107">
-        <v>3124.81</v>
+        <v>2505.94</v>
       </c>
       <c r="N107">
         <v>0.04</v>
       </c>
       <c r="O107">
-        <v>399.03</v>
+        <v>399.04</v>
       </c>
       <c r="P107">
-        <v>185551</v>
+        <v>148527</v>
       </c>
       <c r="Q107">
         <v>0</v>
       </c>
       <c r="R107">
-        <v>0.33</v>
+        <v>1.22</v>
       </c>
       <c r="S107">
-        <v>0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:19">
@@ -7567,40 +7567,40 @@
         <v>2</v>
       </c>
       <c r="H108">
-        <v>156772</v>
+        <v>165731</v>
       </c>
       <c r="I108">
         <v>100</v>
       </c>
       <c r="J108">
-        <v>59.4</v>
+        <v>59.36</v>
       </c>
       <c r="K108">
-        <v>2.24</v>
+        <v>2.37</v>
       </c>
       <c r="L108">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="M108">
-        <v>2639.26</v>
+        <v>2791.96</v>
       </c>
       <c r="N108">
         <v>0.04</v>
       </c>
       <c r="O108">
-        <v>398.94</v>
+        <v>398.73</v>
       </c>
       <c r="P108">
-        <v>156772</v>
+        <v>165731</v>
       </c>
       <c r="Q108">
         <v>0</v>
       </c>
       <c r="R108">
-        <v>0.35</v>
+        <v>0.28</v>
       </c>
       <c r="S108">
-        <v>0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:19">
@@ -7626,40 +7626,40 @@
         <v>3</v>
       </c>
       <c r="H109">
-        <v>160953</v>
+        <v>154419</v>
       </c>
       <c r="I109">
         <v>100</v>
       </c>
       <c r="J109">
-        <v>59.41</v>
+        <v>59.55</v>
       </c>
       <c r="K109">
-        <v>2.3</v>
+        <v>2.21</v>
       </c>
       <c r="L109">
         <v>0.15</v>
       </c>
       <c r="M109">
-        <v>2709.19</v>
+        <v>2593.1</v>
       </c>
       <c r="N109">
         <v>0.04</v>
       </c>
       <c r="O109">
-        <v>399.04</v>
+        <v>398.28</v>
       </c>
       <c r="P109">
-        <v>160953</v>
+        <v>154419</v>
       </c>
       <c r="Q109">
         <v>0</v>
       </c>
       <c r="R109">
-        <v>1.14</v>
+        <v>0.67</v>
       </c>
       <c r="S109">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:19">
@@ -7685,40 +7685,40 @@
         <v>4</v>
       </c>
       <c r="H110">
-        <v>173938</v>
+        <v>187138</v>
       </c>
       <c r="I110">
         <v>100</v>
       </c>
       <c r="J110">
-        <v>59.38</v>
+        <v>59.64</v>
       </c>
       <c r="K110">
-        <v>2.49</v>
+        <v>2.68</v>
       </c>
       <c r="L110">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="M110">
-        <v>2929.24</v>
+        <v>3137.79</v>
       </c>
       <c r="N110">
         <v>0.04</v>
       </c>
       <c r="O110">
-        <v>398.98</v>
+        <v>398.39</v>
       </c>
       <c r="P110">
-        <v>173938</v>
+        <v>187138</v>
       </c>
       <c r="Q110">
         <v>0</v>
       </c>
       <c r="R110">
-        <v>0.33</v>
+        <v>1.1</v>
       </c>
       <c r="S110">
-        <v>0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:19">
@@ -7744,40 +7744,40 @@
         <v>5</v>
       </c>
       <c r="H111">
-        <v>162125</v>
+        <v>176237</v>
       </c>
       <c r="I111">
         <v>100</v>
       </c>
       <c r="J111">
-        <v>59.41</v>
+        <v>59.59</v>
       </c>
       <c r="K111">
-        <v>2.32</v>
+        <v>2.52</v>
       </c>
       <c r="L111">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="M111">
-        <v>2728.92</v>
+        <v>2957.49</v>
       </c>
       <c r="N111">
         <v>0.04</v>
       </c>
       <c r="O111">
-        <v>399.18</v>
+        <v>398.69</v>
       </c>
       <c r="P111">
-        <v>162125</v>
+        <v>176237</v>
       </c>
       <c r="Q111">
         <v>0</v>
       </c>
       <c r="R111">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="S111">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:19">
@@ -7803,40 +7803,40 @@
         <v>1</v>
       </c>
       <c r="H112">
-        <v>164327</v>
+        <v>142253</v>
       </c>
       <c r="I112">
         <v>100</v>
       </c>
       <c r="J112">
-        <v>59.41</v>
+        <v>59.98</v>
       </c>
       <c r="K112">
-        <v>2.35</v>
+        <v>2.03</v>
       </c>
       <c r="L112">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="M112">
-        <v>2765.98</v>
+        <v>2371.67</v>
       </c>
       <c r="N112">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="O112">
-        <v>596.5</v>
+        <v>595.98</v>
       </c>
       <c r="P112">
-        <v>164327</v>
+        <v>142253</v>
       </c>
       <c r="Q112">
         <v>0</v>
       </c>
       <c r="R112">
-        <v>5.21</v>
+        <v>5.99</v>
       </c>
       <c r="S112">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:19">
@@ -7862,40 +7862,40 @@
         <v>2</v>
       </c>
       <c r="H113">
-        <v>192539</v>
+        <v>134664</v>
       </c>
       <c r="I113">
         <v>100</v>
       </c>
       <c r="J113">
-        <v>59.34</v>
+        <v>59.98</v>
       </c>
       <c r="K113">
-        <v>2.75</v>
+        <v>1.93</v>
       </c>
       <c r="L113">
-        <v>0.18</v>
+        <v>0.27</v>
       </c>
       <c r="M113">
-        <v>3244.67</v>
+        <v>2245.15</v>
       </c>
       <c r="N113">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="O113">
-        <v>598.03</v>
+        <v>595.15</v>
       </c>
       <c r="P113">
-        <v>192539</v>
+        <v>134664</v>
       </c>
       <c r="Q113">
         <v>0</v>
       </c>
       <c r="R113">
-        <v>1.95</v>
+        <v>4.82</v>
       </c>
       <c r="S113">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="114" spans="1:19">
@@ -7921,40 +7921,40 @@
         <v>3</v>
       </c>
       <c r="H114">
-        <v>202912</v>
+        <v>149723</v>
       </c>
       <c r="I114">
         <v>100</v>
       </c>
       <c r="J114">
-        <v>59.4</v>
+        <v>59.19</v>
       </c>
       <c r="K114">
-        <v>2.9</v>
+        <v>2.14</v>
       </c>
       <c r="L114">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="M114">
-        <v>3416.03</v>
+        <v>2529.53</v>
       </c>
       <c r="N114">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="O114">
-        <v>598.38</v>
+        <v>596.5</v>
       </c>
       <c r="P114">
-        <v>202912</v>
+        <v>149723</v>
       </c>
       <c r="Q114">
         <v>0</v>
       </c>
       <c r="R114">
-        <v>1.98</v>
+        <v>6.25</v>
       </c>
       <c r="S114">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:19">
@@ -7980,40 +7980,40 @@
         <v>4</v>
       </c>
       <c r="H115">
-        <v>188598</v>
+        <v>192338</v>
       </c>
       <c r="I115">
         <v>100</v>
       </c>
       <c r="J115">
-        <v>59.37</v>
+        <v>59.21</v>
       </c>
       <c r="K115">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="L115">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="M115">
-        <v>3176.66</v>
+        <v>3248.4</v>
       </c>
       <c r="N115">
         <v>0.05</v>
       </c>
       <c r="O115">
-        <v>598.1799999999999</v>
+        <v>596.64</v>
       </c>
       <c r="P115">
-        <v>188598</v>
+        <v>192338</v>
       </c>
       <c r="Q115">
         <v>0</v>
       </c>
       <c r="R115">
-        <v>2.21</v>
+        <v>4.39</v>
       </c>
       <c r="S115">
-        <v>0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:19">
@@ -8039,40 +8039,40 @@
         <v>5</v>
       </c>
       <c r="H116">
-        <v>152743</v>
+        <v>174685</v>
       </c>
       <c r="I116">
         <v>100</v>
       </c>
       <c r="J116">
-        <v>59.44</v>
+        <v>59.56</v>
       </c>
       <c r="K116">
-        <v>2.19</v>
+        <v>2.5</v>
       </c>
       <c r="L116">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="M116">
-        <v>2569.7</v>
+        <v>2932.92</v>
       </c>
       <c r="N116">
         <v>0.04</v>
       </c>
       <c r="O116">
-        <v>597.11</v>
+        <v>597.45</v>
       </c>
       <c r="P116">
-        <v>152743</v>
+        <v>174685</v>
       </c>
       <c r="Q116">
         <v>0</v>
       </c>
       <c r="R116">
-        <v>3.21</v>
+        <v>4.5</v>
       </c>
       <c r="S116">
-        <v>0.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:19">
@@ -8098,40 +8098,40 @@
         <v>1</v>
       </c>
       <c r="H117">
-        <v>168769</v>
+        <v>133812</v>
       </c>
       <c r="I117">
         <v>100</v>
       </c>
       <c r="J117">
-        <v>59.5</v>
+        <v>59.2</v>
       </c>
       <c r="K117">
-        <v>2.41</v>
+        <v>1.91</v>
       </c>
       <c r="L117">
-        <v>0.28</v>
+        <v>0.35</v>
       </c>
       <c r="M117">
-        <v>2836.45</v>
+        <v>2260.34</v>
       </c>
       <c r="N117">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="O117">
-        <v>794.36</v>
+        <v>790.24</v>
       </c>
       <c r="P117">
-        <v>168769</v>
+        <v>133812</v>
       </c>
       <c r="Q117">
         <v>0</v>
       </c>
       <c r="R117">
-        <v>4.57</v>
+        <v>12.73</v>
       </c>
       <c r="S117">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="118" spans="1:19">
@@ -8157,40 +8157,40 @@
         <v>2</v>
       </c>
       <c r="H118">
-        <v>145492</v>
+        <v>163356</v>
       </c>
       <c r="I118">
         <v>100</v>
       </c>
       <c r="J118">
-        <v>59.46</v>
+        <v>59.18</v>
       </c>
       <c r="K118">
-        <v>2.08</v>
+        <v>2.34</v>
       </c>
       <c r="L118">
-        <v>0.32</v>
+        <v>0.29</v>
       </c>
       <c r="M118">
-        <v>2446.89</v>
+        <v>2760.32</v>
       </c>
       <c r="N118">
         <v>0.04</v>
       </c>
       <c r="O118">
-        <v>794.17</v>
+        <v>790.02</v>
       </c>
       <c r="P118">
-        <v>145492</v>
+        <v>163356</v>
       </c>
       <c r="Q118">
         <v>0</v>
       </c>
       <c r="R118">
-        <v>7.33</v>
+        <v>6.08</v>
       </c>
       <c r="S118">
-        <v>0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:19">
@@ -8216,40 +8216,40 @@
         <v>3</v>
       </c>
       <c r="H119">
-        <v>178346</v>
+        <v>117967</v>
       </c>
       <c r="I119">
         <v>100</v>
       </c>
       <c r="J119">
-        <v>59.37</v>
+        <v>59.1</v>
       </c>
       <c r="K119">
-        <v>2.55</v>
+        <v>1.69</v>
       </c>
       <c r="L119">
-        <v>0.27</v>
+        <v>0.4</v>
       </c>
       <c r="M119">
-        <v>3003.98</v>
+        <v>1996.06</v>
       </c>
       <c r="N119">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="O119">
-        <v>797.22</v>
+        <v>789.23</v>
       </c>
       <c r="P119">
-        <v>178346</v>
+        <v>117967</v>
       </c>
       <c r="Q119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R119">
-        <v>5.16</v>
+        <v>8.77</v>
       </c>
       <c r="S119">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:19">
@@ -8275,40 +8275,40 @@
         <v>4</v>
       </c>
       <c r="H120">
-        <v>184988</v>
+        <v>136943</v>
       </c>
       <c r="I120">
         <v>100</v>
       </c>
       <c r="J120">
-        <v>59.35</v>
+        <v>59.23</v>
       </c>
       <c r="K120">
-        <v>2.65</v>
+        <v>1.96</v>
       </c>
       <c r="L120">
-        <v>0.26</v>
+        <v>0.34</v>
       </c>
       <c r="M120">
-        <v>3116.9</v>
+        <v>2312.05</v>
       </c>
       <c r="N120">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="O120">
-        <v>795.14</v>
+        <v>781.28</v>
       </c>
       <c r="P120">
-        <v>184988</v>
+        <v>136943</v>
       </c>
       <c r="Q120">
         <v>0</v>
       </c>
       <c r="R120">
-        <v>12.65</v>
+        <v>9.85</v>
       </c>
       <c r="S120">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:19">
@@ -8334,40 +8334,40 @@
         <v>5</v>
       </c>
       <c r="H121">
-        <v>182657</v>
+        <v>146455</v>
       </c>
       <c r="I121">
         <v>100</v>
       </c>
       <c r="J121">
-        <v>59.51</v>
+        <v>59.08</v>
       </c>
       <c r="K121">
-        <v>2.61</v>
+        <v>2.1</v>
       </c>
       <c r="L121">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
       <c r="M121">
-        <v>3069.35</v>
+        <v>2478.93</v>
       </c>
       <c r="N121">
         <v>0.04</v>
       </c>
       <c r="O121">
-        <v>794.9400000000001</v>
+        <v>790.67</v>
       </c>
       <c r="P121">
-        <v>182657</v>
+        <v>146455</v>
       </c>
       <c r="Q121">
         <v>0</v>
       </c>
       <c r="R121">
-        <v>7.69</v>
+        <v>5.28</v>
       </c>
       <c r="S121">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:19">
@@ -8393,40 +8393,40 @@
         <v>1</v>
       </c>
       <c r="H122">
-        <v>197547</v>
+        <v>146024</v>
       </c>
       <c r="I122">
-        <v>100</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="J122">
-        <v>59.47</v>
+        <v>59.1</v>
       </c>
       <c r="K122">
-        <v>2.83</v>
+        <v>2.09</v>
       </c>
       <c r="L122">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="M122">
-        <v>3321.79</v>
+        <v>2470.8</v>
       </c>
       <c r="N122">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="O122">
-        <v>991.62</v>
+        <v>988.04</v>
       </c>
       <c r="P122">
-        <v>197547</v>
+        <v>146024</v>
       </c>
       <c r="Q122">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="R122">
-        <v>5.22</v>
+        <v>9.92</v>
       </c>
       <c r="S122">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="123" spans="1:19">
@@ -8452,40 +8452,40 @@
         <v>2</v>
       </c>
       <c r="H123">
-        <v>175446</v>
+        <v>139237</v>
       </c>
       <c r="I123">
         <v>100</v>
       </c>
       <c r="J123">
-        <v>59.43</v>
+        <v>60.05</v>
       </c>
       <c r="K123">
-        <v>2.51</v>
+        <v>1.99</v>
       </c>
       <c r="L123">
-        <v>0.34</v>
+        <v>0.42</v>
       </c>
       <c r="M123">
-        <v>2952.15</v>
+        <v>2318.68</v>
       </c>
       <c r="N123">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="O123">
-        <v>992.5599999999999</v>
+        <v>984.45</v>
       </c>
       <c r="P123">
-        <v>175446</v>
+        <v>139237</v>
       </c>
       <c r="Q123">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R123">
-        <v>5.25</v>
+        <v>12.88</v>
       </c>
       <c r="S123">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:19">
@@ -8511,40 +8511,40 @@
         <v>3</v>
       </c>
       <c r="H124">
-        <v>175610</v>
+        <v>121795</v>
       </c>
       <c r="I124">
-        <v>100</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="J124">
-        <v>59.29</v>
+        <v>59.06</v>
       </c>
       <c r="K124">
-        <v>2.51</v>
+        <v>1.74</v>
       </c>
       <c r="L124">
-        <v>0.34</v>
+        <v>0.48</v>
       </c>
       <c r="M124">
-        <v>2961.88</v>
+        <v>2062.22</v>
       </c>
       <c r="N124">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="O124">
-        <v>995.04</v>
+        <v>982.0700000000001</v>
       </c>
       <c r="P124">
-        <v>175610</v>
+        <v>121795</v>
       </c>
       <c r="Q124">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R124">
-        <v>5.59</v>
+        <v>7.46</v>
       </c>
       <c r="S124">
-        <v>0.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:19">
@@ -8570,40 +8570,40 @@
         <v>4</v>
       </c>
       <c r="H125">
-        <v>156084</v>
+        <v>126441</v>
       </c>
       <c r="I125">
         <v>100</v>
       </c>
       <c r="J125">
-        <v>59.16</v>
+        <v>59.22</v>
       </c>
       <c r="K125">
-        <v>2.23</v>
+        <v>1.81</v>
       </c>
       <c r="L125">
-        <v>0.38</v>
+        <v>0.46</v>
       </c>
       <c r="M125">
-        <v>2638.34</v>
+        <v>2135.11</v>
       </c>
       <c r="N125">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="O125">
-        <v>994.83</v>
+        <v>982.65</v>
       </c>
       <c r="P125">
-        <v>156084</v>
+        <v>126441</v>
       </c>
       <c r="Q125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R125">
-        <v>5.3</v>
+        <v>13.36</v>
       </c>
       <c r="S125">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:19">
@@ -8629,40 +8629,40 @@
         <v>5</v>
       </c>
       <c r="H126">
-        <v>183748</v>
+        <v>134219</v>
       </c>
       <c r="I126">
         <v>100</v>
       </c>
       <c r="J126">
-        <v>59.22</v>
+        <v>59.1</v>
       </c>
       <c r="K126">
-        <v>2.63</v>
+        <v>1.92</v>
       </c>
       <c r="L126">
-        <v>0.32</v>
+        <v>0.44</v>
       </c>
       <c r="M126">
-        <v>3102.8</v>
+        <v>2271.05</v>
       </c>
       <c r="N126">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="O126">
-        <v>995.05</v>
+        <v>988.46</v>
       </c>
       <c r="P126">
-        <v>183748</v>
+        <v>134219</v>
       </c>
       <c r="Q126">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R126">
-        <v>12.59</v>
+        <v>8.09</v>
       </c>
       <c r="S126">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8679,7 +8679,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="3" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
     <col min="4" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
     <col min="7" max="7" width="19.7109375" customWidth="1"/>
@@ -8754,40 +8755,40 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>4722.4</v>
+        <v>27132.2</v>
       </c>
       <c r="F2">
         <v>100</v>
       </c>
       <c r="G2">
-        <v>59.46599999999999</v>
+        <v>59.616</v>
       </c>
       <c r="H2">
-        <v>816.47</v>
+        <v>1492.446</v>
       </c>
       <c r="I2">
-        <v>11.346</v>
+        <v>2.122</v>
       </c>
       <c r="J2">
-        <v>79.40000000000001</v>
+        <v>455.098</v>
       </c>
       <c r="K2">
-        <v>13.728</v>
+        <v>25.036</v>
       </c>
       <c r="L2">
-        <v>898.8340000000001</v>
+        <v>963.5260000000001</v>
       </c>
       <c r="M2">
-        <v>4722.4</v>
+        <v>27132.4</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O2">
-        <v>15.36</v>
+        <v>21.852</v>
       </c>
       <c r="P2">
-        <v>0.174</v>
+        <v>0.05600000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -8800,40 +8801,40 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>4646</v>
+        <v>35376.8</v>
       </c>
       <c r="F3">
         <v>100</v>
       </c>
       <c r="G3">
-        <v>59.46599999999999</v>
+        <v>59.616</v>
       </c>
       <c r="H3">
-        <v>803.26</v>
+        <v>1945.936</v>
       </c>
       <c r="I3">
-        <v>2.51</v>
+        <v>0.352</v>
       </c>
       <c r="J3">
-        <v>78.13</v>
+        <v>593.188</v>
       </c>
       <c r="K3">
-        <v>13.508</v>
+        <v>32.628</v>
       </c>
       <c r="L3">
-        <v>195.896</v>
+        <v>198.976</v>
       </c>
       <c r="M3">
-        <v>4646</v>
+        <v>35376.8</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.640000000000001</v>
+        <v>3.104</v>
       </c>
       <c r="P3">
-        <v>0.138</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -8846,40 +8847,40 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>4695.4</v>
+        <v>35442.6</v>
       </c>
       <c r="F4">
         <v>100</v>
       </c>
       <c r="G4">
-        <v>59.412</v>
+        <v>59.932</v>
       </c>
       <c r="H4">
-        <v>811.798</v>
+        <v>1949.556</v>
       </c>
       <c r="I4">
-        <v>4.862</v>
+        <v>0.674</v>
       </c>
       <c r="J4">
-        <v>79.03399999999999</v>
+        <v>591.4</v>
       </c>
       <c r="K4">
-        <v>13.664</v>
+        <v>32.532</v>
       </c>
       <c r="L4">
-        <v>383.964</v>
+        <v>395.212</v>
       </c>
       <c r="M4">
-        <v>4695.4</v>
+        <v>35442.6</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>6.692</v>
+        <v>6.616</v>
       </c>
       <c r="P4">
-        <v>0.114</v>
+        <v>0.156</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -8892,40 +8893,40 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>4718.2</v>
+        <v>35432.6</v>
       </c>
       <c r="F5">
         <v>100</v>
       </c>
       <c r="G5">
-        <v>59.41</v>
+        <v>59.876</v>
       </c>
       <c r="H5">
-        <v>815.742</v>
+        <v>1949.008</v>
       </c>
       <c r="I5">
-        <v>7.022</v>
+        <v>1.008</v>
       </c>
       <c r="J5">
-        <v>79.41200000000001</v>
+        <v>591.698</v>
       </c>
       <c r="K5">
-        <v>13.73</v>
+        <v>32.546</v>
       </c>
       <c r="L5">
-        <v>556.9640000000001</v>
+        <v>588.446</v>
       </c>
       <c r="M5">
-        <v>4718.2</v>
+        <v>35432.6</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>9.362</v>
+        <v>10.838</v>
       </c>
       <c r="P5">
-        <v>0.152</v>
+        <v>0.094</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -8938,40 +8939,40 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <v>4805</v>
+        <v>29526.6</v>
       </c>
       <c r="F6">
         <v>100</v>
       </c>
       <c r="G6">
-        <v>59.47799999999999</v>
+        <v>59.774</v>
       </c>
       <c r="H6">
-        <v>830.75</v>
+        <v>1624.14</v>
       </c>
       <c r="I6">
-        <v>9.141999999999999</v>
+        <v>1.57</v>
       </c>
       <c r="J6">
-        <v>80.78400000000001</v>
+        <v>493.958</v>
       </c>
       <c r="K6">
-        <v>13.966</v>
+        <v>27.17</v>
       </c>
       <c r="L6">
-        <v>738.3480000000001</v>
+        <v>773.6180000000001</v>
       </c>
       <c r="M6">
-        <v>4805</v>
+        <v>29526.6</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>11.634</v>
+        <v>20.598</v>
       </c>
       <c r="P6">
-        <v>0.148</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -8986,40 +8987,40 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>148547.6</v>
+        <v>136264.8</v>
       </c>
       <c r="F7">
         <v>100</v>
       </c>
       <c r="G7">
-        <v>59.72000000000001</v>
+        <v>59.6</v>
       </c>
       <c r="H7">
-        <v>297.5</v>
+        <v>272.9</v>
       </c>
       <c r="I7">
-        <v>0.398</v>
+        <v>0.438</v>
       </c>
       <c r="J7">
-        <v>2487.4</v>
+        <v>2286.33</v>
       </c>
       <c r="K7">
-        <v>4.982</v>
+        <v>4.578</v>
       </c>
       <c r="L7">
-        <v>990.506</v>
+        <v>988.7040000000001</v>
       </c>
       <c r="M7">
-        <v>148547.6</v>
+        <v>136264.8</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.766</v>
+        <v>9.968</v>
       </c>
       <c r="P7">
-        <v>0.106</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -9032,40 +9033,40 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>186962.8</v>
+        <v>135138</v>
       </c>
       <c r="F8">
         <v>100</v>
       </c>
       <c r="G8">
-        <v>59.70800000000001</v>
+        <v>59.678</v>
       </c>
       <c r="H8">
-        <v>374.432</v>
+        <v>270.642</v>
       </c>
       <c r="I8">
-        <v>0.066</v>
+        <v>0.09</v>
       </c>
       <c r="J8">
-        <v>3131.382</v>
+        <v>2264.436</v>
       </c>
       <c r="K8">
-        <v>6.27</v>
+        <v>4.536</v>
       </c>
       <c r="L8">
-        <v>199.626</v>
+        <v>199.162</v>
       </c>
       <c r="M8">
-        <v>186962.8</v>
+        <v>135138</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.228</v>
+        <v>0.466</v>
       </c>
       <c r="P8">
-        <v>0.02</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -9078,40 +9079,40 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>160439.2</v>
+        <v>133670.6</v>
       </c>
       <c r="F9">
         <v>100</v>
       </c>
       <c r="G9">
-        <v>59.774</v>
+        <v>59.58</v>
       </c>
       <c r="H9">
-        <v>321.314</v>
+        <v>267.706</v>
       </c>
       <c r="I9">
-        <v>0.15</v>
+        <v>0.184</v>
       </c>
       <c r="J9">
-        <v>2684.09</v>
+        <v>2243.348</v>
       </c>
       <c r="K9">
-        <v>5.375999999999999</v>
+        <v>4.494</v>
       </c>
       <c r="L9">
-        <v>399.062</v>
+        <v>397.948</v>
       </c>
       <c r="M9">
-        <v>160439.2</v>
+        <v>133670.6</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.206</v>
+        <v>1.596</v>
       </c>
       <c r="P9">
-        <v>0.06999999999999999</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -9124,40 +9125,40 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>156077.4</v>
+        <v>148167</v>
       </c>
       <c r="F10">
         <v>100</v>
       </c>
       <c r="G10">
-        <v>59.706</v>
+        <v>59.586</v>
       </c>
       <c r="H10">
-        <v>312.58</v>
+        <v>296.736</v>
       </c>
       <c r="I10">
-        <v>0.228</v>
+        <v>0.244</v>
       </c>
       <c r="J10">
-        <v>2614.098</v>
+        <v>2486.752</v>
       </c>
       <c r="K10">
-        <v>5.234</v>
+        <v>4.98</v>
       </c>
       <c r="L10">
-        <v>596.8979999999999</v>
+        <v>595.266</v>
       </c>
       <c r="M10">
-        <v>156077.6</v>
+        <v>148167</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.098000000000001</v>
+        <v>4.42</v>
       </c>
       <c r="P10">
-        <v>0.064</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -9170,40 +9171,40 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>163674.4</v>
+        <v>135675</v>
       </c>
       <c r="F11">
         <v>100</v>
       </c>
       <c r="G11">
-        <v>59.604</v>
+        <v>59.566</v>
       </c>
       <c r="H11">
-        <v>327.796</v>
+        <v>271.72</v>
       </c>
       <c r="I11">
-        <v>0.296</v>
+        <v>0.352</v>
       </c>
       <c r="J11">
-        <v>2747.886</v>
+        <v>2277.686</v>
       </c>
       <c r="K11">
-        <v>5.504</v>
+        <v>4.562</v>
       </c>
       <c r="L11">
-        <v>794.558</v>
+        <v>792.854</v>
       </c>
       <c r="M11">
-        <v>163674.4</v>
+        <v>135675</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>6.298</v>
+        <v>8.481999999999999</v>
       </c>
       <c r="P11">
-        <v>0.066</v>
+        <v>0.08400000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -9218,40 +9219,40 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>177687</v>
+        <v>133543.2</v>
       </c>
       <c r="F12">
-        <v>100</v>
+        <v>99.99600000000001</v>
       </c>
       <c r="G12">
-        <v>59.314</v>
+        <v>59.306</v>
       </c>
       <c r="H12">
-        <v>2.542</v>
+        <v>1.91</v>
       </c>
       <c r="I12">
-        <v>0.336</v>
+        <v>0.4400000000000001</v>
       </c>
       <c r="J12">
-        <v>2995.392</v>
+        <v>2251.572</v>
       </c>
       <c r="K12">
-        <v>0.042</v>
+        <v>0.032</v>
       </c>
       <c r="L12">
-        <v>993.8200000000001</v>
+        <v>985.134</v>
       </c>
       <c r="M12">
-        <v>177687</v>
+        <v>133543.2</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>6.6</v>
       </c>
       <c r="O12">
-        <v>6.790000000000001</v>
+        <v>10.342</v>
       </c>
       <c r="P12">
-        <v>0.052</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -9264,40 +9265,40 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>184117.8</v>
+        <v>148514</v>
       </c>
       <c r="F13">
         <v>100</v>
       </c>
       <c r="G13">
-        <v>59.364</v>
+        <v>59.448</v>
       </c>
       <c r="H13">
-        <v>2.636</v>
+        <v>2.126</v>
       </c>
       <c r="I13">
-        <v>0.066</v>
+        <v>0.08</v>
       </c>
       <c r="J13">
-        <v>3101.368</v>
+        <v>2498.05</v>
       </c>
       <c r="K13">
-        <v>0.044</v>
+        <v>0.034</v>
       </c>
       <c r="L13">
-        <v>199.65</v>
+        <v>199.29</v>
       </c>
       <c r="M13">
-        <v>184117.8</v>
+        <v>148514</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="P13">
-        <v>0.012</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -9310,40 +9311,40 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>167867.8</v>
+        <v>166410.4</v>
       </c>
       <c r="F14">
         <v>100</v>
       </c>
       <c r="G14">
-        <v>59.396</v>
+        <v>59.48200000000001</v>
       </c>
       <c r="H14">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="I14">
-        <v>0.144</v>
+        <v>0.142</v>
       </c>
       <c r="J14">
-        <v>2826.284</v>
+        <v>2797.256</v>
       </c>
       <c r="K14">
         <v>0.04</v>
       </c>
       <c r="L14">
-        <v>399.034</v>
+        <v>398.626</v>
       </c>
       <c r="M14">
-        <v>167867.8</v>
+        <v>166410.4</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.496</v>
+        <v>0.714</v>
       </c>
       <c r="P14">
-        <v>0.052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -9356,40 +9357,40 @@
         <v>3</v>
       </c>
       <c r="E15">
-        <v>180223.8</v>
+        <v>158732.6</v>
       </c>
       <c r="F15">
         <v>100</v>
       </c>
       <c r="G15">
-        <v>59.392</v>
+        <v>59.584</v>
       </c>
       <c r="H15">
-        <v>2.578</v>
+        <v>2.27</v>
       </c>
       <c r="I15">
-        <v>0.2</v>
+        <v>0.228</v>
       </c>
       <c r="J15">
-        <v>3034.608</v>
+        <v>2665.534</v>
       </c>
       <c r="K15">
-        <v>0.046</v>
+        <v>0.038</v>
       </c>
       <c r="L15">
-        <v>597.64</v>
+        <v>596.3440000000001</v>
       </c>
       <c r="M15">
-        <v>180223.8</v>
+        <v>158732.6</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.912</v>
+        <v>5.19</v>
       </c>
       <c r="P15">
-        <v>0.052</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -9402,40 +9403,40 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>172050.4</v>
+        <v>139706.6</v>
       </c>
       <c r="F16">
         <v>100</v>
       </c>
       <c r="G16">
-        <v>59.438</v>
+        <v>59.158</v>
       </c>
       <c r="H16">
-        <v>2.46</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>0.278</v>
+        <v>0.34</v>
       </c>
       <c r="J16">
-        <v>2894.714</v>
+        <v>2361.54</v>
       </c>
       <c r="K16">
-        <v>0.04</v>
+        <v>0.034</v>
       </c>
       <c r="L16">
-        <v>795.1659999999999</v>
+        <v>788.288</v>
       </c>
       <c r="M16">
-        <v>172050.4</v>
+        <v>139706.6</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="O16">
-        <v>7.48</v>
+        <v>8.542</v>
       </c>
       <c r="P16">
-        <v>0.052</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -9450,40 +9451,40 @@
         <v>3</v>
       </c>
       <c r="E17">
-        <v>80321.60000000001</v>
+        <v>141904</v>
       </c>
       <c r="F17">
         <v>100</v>
       </c>
       <c r="G17">
-        <v>59.514</v>
+        <v>59.51000000000001</v>
       </c>
       <c r="H17">
-        <v>1.532</v>
+        <v>2.706</v>
       </c>
       <c r="I17">
-        <v>0.736</v>
+        <v>0.418</v>
       </c>
       <c r="J17">
-        <v>1349.638</v>
+        <v>2384.584</v>
       </c>
       <c r="K17">
-        <v>0.028</v>
+        <v>0.048</v>
       </c>
       <c r="L17">
-        <v>992.634</v>
+        <v>990.8619999999999</v>
       </c>
       <c r="M17">
-        <v>80321.60000000001</v>
+        <v>141904</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.196</v>
+        <v>5.884</v>
       </c>
       <c r="P17">
-        <v>0.148</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -9496,40 +9497,40 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>76621.60000000001</v>
+        <v>141202</v>
       </c>
       <c r="F18">
         <v>100</v>
       </c>
       <c r="G18">
-        <v>59.34200000000001</v>
+        <v>59.61</v>
       </c>
       <c r="H18">
-        <v>1.462</v>
+        <v>2.692</v>
       </c>
       <c r="I18">
-        <v>0.156</v>
+        <v>0.08399999999999999</v>
       </c>
       <c r="J18">
-        <v>1291.106</v>
+        <v>2368.98</v>
       </c>
       <c r="K18">
-        <v>0.022</v>
+        <v>0.046</v>
       </c>
       <c r="L18">
-        <v>199.604</v>
+        <v>199.292</v>
       </c>
       <c r="M18">
-        <v>76621.60000000001</v>
+        <v>141202</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.324</v>
+        <v>0.386</v>
       </c>
       <c r="P18">
-        <v>0.09</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -9542,40 +9543,40 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>81238.2</v>
+        <v>151068.8</v>
       </c>
       <c r="F19">
         <v>100</v>
       </c>
       <c r="G19">
-        <v>59.412</v>
+        <v>59.608</v>
       </c>
       <c r="H19">
-        <v>1.546</v>
+        <v>2.882</v>
       </c>
       <c r="I19">
-        <v>0.292</v>
+        <v>0.156</v>
       </c>
       <c r="J19">
-        <v>1367.366</v>
+        <v>2534.338</v>
       </c>
       <c r="K19">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="L19">
-        <v>398.528</v>
+        <v>398.766</v>
       </c>
       <c r="M19">
-        <v>81238.2</v>
+        <v>151068.8</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.524</v>
+        <v>0.444</v>
       </c>
       <c r="P19">
-        <v>0.16</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -9588,40 +9589,40 @@
         <v>3</v>
       </c>
       <c r="E20">
-        <v>81495.2</v>
+        <v>138968.6</v>
       </c>
       <c r="F20">
         <v>100</v>
       </c>
       <c r="G20">
-        <v>59.33</v>
+        <v>59.572</v>
       </c>
       <c r="H20">
-        <v>1.554</v>
+        <v>2.648</v>
       </c>
       <c r="I20">
-        <v>0.434</v>
+        <v>0.256</v>
       </c>
       <c r="J20">
-        <v>1373.57</v>
+        <v>2332.742</v>
       </c>
       <c r="K20">
-        <v>0.028</v>
+        <v>0.046</v>
       </c>
       <c r="L20">
-        <v>596.9399999999999</v>
+        <v>597.5020000000001</v>
       </c>
       <c r="M20">
-        <v>81495.2</v>
+        <v>138968.6</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.658</v>
+        <v>4.4</v>
       </c>
       <c r="P20">
-        <v>0.188</v>
+        <v>0.118</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -9634,40 +9635,40 @@
         <v>3</v>
       </c>
       <c r="E21">
-        <v>78269.39999999999</v>
+        <v>139907</v>
       </c>
       <c r="F21">
         <v>100</v>
       </c>
       <c r="G21">
-        <v>59.434</v>
+        <v>59.492</v>
       </c>
       <c r="H21">
-        <v>1.494</v>
+        <v>2.67</v>
       </c>
       <c r="I21">
-        <v>0.604</v>
+        <v>0.34</v>
       </c>
       <c r="J21">
-        <v>1316.938</v>
+        <v>2351.492</v>
       </c>
       <c r="K21">
-        <v>0.026</v>
+        <v>0.046</v>
       </c>
       <c r="L21">
-        <v>795.212</v>
+        <v>793.9860000000001</v>
       </c>
       <c r="M21">
-        <v>78269.39999999999</v>
+        <v>139907</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.884</v>
+        <v>5.529999999999999</v>
       </c>
       <c r="P21">
-        <v>0.22</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -9682,40 +9683,40 @@
         <v>3</v>
       </c>
       <c r="E22">
-        <v>73151.2</v>
+        <v>109243.4</v>
       </c>
       <c r="F22">
         <v>100</v>
       </c>
       <c r="G22">
-        <v>59.48200000000001</v>
+        <v>59.628</v>
       </c>
       <c r="H22">
-        <v>1.186</v>
+        <v>1.77</v>
       </c>
       <c r="I22">
-        <v>0.9199999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="J22">
-        <v>1229.506</v>
+        <v>1832.06</v>
       </c>
       <c r="K22">
-        <v>0.018</v>
+        <v>0.03</v>
       </c>
       <c r="L22">
-        <v>990.644</v>
+        <v>991.258</v>
       </c>
       <c r="M22">
-        <v>73151.2</v>
+        <v>109243.4</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.792</v>
+        <v>1.578</v>
       </c>
       <c r="P22">
-        <v>0.036</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -9728,40 +9729,40 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>46630.8</v>
+        <v>109460.4</v>
       </c>
       <c r="F23">
         <v>100</v>
       </c>
       <c r="G23">
-        <v>59.456</v>
+        <v>59.702</v>
       </c>
       <c r="H23">
-        <v>0.756</v>
+        <v>1.772</v>
       </c>
       <c r="I23">
-        <v>0.254</v>
+        <v>0.11</v>
       </c>
       <c r="J23">
-        <v>784.278</v>
+        <v>1833.442</v>
       </c>
       <c r="K23">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="L23">
-        <v>199.384</v>
+        <v>199.532</v>
       </c>
       <c r="M23">
-        <v>46631</v>
+        <v>109460.4</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.62</v>
+        <v>0.456</v>
       </c>
       <c r="P23">
-        <v>0.076</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -9774,40 +9775,40 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>46445.2</v>
+        <v>110115.2</v>
       </c>
       <c r="F24">
         <v>100</v>
       </c>
       <c r="G24">
-        <v>59.54199999999999</v>
+        <v>59.726</v>
       </c>
       <c r="H24">
-        <v>0.754</v>
+        <v>1.784</v>
       </c>
       <c r="I24">
-        <v>0.508</v>
+        <v>0.216</v>
       </c>
       <c r="J24">
-        <v>780.046</v>
+        <v>1843.66</v>
       </c>
       <c r="K24">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="L24">
-        <v>397.912</v>
+        <v>398.736</v>
       </c>
       <c r="M24">
-        <v>46445.4</v>
+        <v>110115.2</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.01</v>
+        <v>0.5740000000000001</v>
       </c>
       <c r="P24">
-        <v>0.06</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -9820,40 +9821,40 @@
         <v>3</v>
       </c>
       <c r="E25">
-        <v>47819.6</v>
+        <v>107369.8</v>
       </c>
       <c r="F25">
         <v>100</v>
       </c>
       <c r="G25">
-        <v>59.35599999999999</v>
+        <v>59.684</v>
       </c>
       <c r="H25">
-        <v>0.776</v>
+        <v>1.742</v>
       </c>
       <c r="I25">
-        <v>0.742</v>
+        <v>0.332</v>
       </c>
       <c r="J25">
-        <v>805.564</v>
+        <v>1798.958</v>
       </c>
       <c r="K25">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="L25">
-        <v>595.6719999999999</v>
+        <v>597.396</v>
       </c>
       <c r="M25">
-        <v>47819.6</v>
+        <v>107369.8</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.202</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="P25">
-        <v>0.08800000000000001</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -9866,40 +9867,40 @@
         <v>3</v>
       </c>
       <c r="E26">
-        <v>67627</v>
+        <v>109774.4</v>
       </c>
       <c r="F26">
-        <v>96.33</v>
+        <v>100</v>
       </c>
       <c r="G26">
-        <v>51.14</v>
+        <v>59.678</v>
       </c>
       <c r="H26">
-        <v>1.144</v>
+        <v>1.778</v>
       </c>
       <c r="I26">
-        <v>0.852</v>
+        <v>0.4320000000000001</v>
       </c>
       <c r="J26">
-        <v>1199.522</v>
+        <v>1839.444</v>
       </c>
       <c r="K26">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="L26">
-        <v>783.378</v>
+        <v>792.6980000000001</v>
       </c>
       <c r="M26">
-        <v>67627</v>
+        <v>109774.4</v>
       </c>
       <c r="N26">
-        <v>364.6</v>
+        <v>0</v>
       </c>
       <c r="O26">
-        <v>1.786</v>
+        <v>1.89</v>
       </c>
       <c r="P26">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
     </row>
   </sheetData>
@@ -9924,10 +9925,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="5" width="19.7109375" customWidth="1"/>
+    <col min="2" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
     <col min="8" max="8" width="21.7109375" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" customWidth="1"/>
     <col min="10" max="10" width="24.7109375" customWidth="1"/>
@@ -9993,40 +9994,40 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>4717.4</v>
+        <v>32582.16</v>
       </c>
       <c r="E2">
         <v>100</v>
       </c>
       <c r="F2">
-        <v>59.4464</v>
+        <v>59.7628</v>
       </c>
       <c r="G2">
-        <v>815.6039999999999</v>
+        <v>1792.2172</v>
       </c>
       <c r="H2">
-        <v>6.9764</v>
+        <v>1.1452</v>
       </c>
       <c r="I2">
-        <v>79.352</v>
+        <v>545.0684</v>
       </c>
       <c r="J2">
-        <v>13.7192</v>
+        <v>29.9824</v>
       </c>
       <c r="K2">
-        <v>554.8012</v>
+        <v>583.9556</v>
       </c>
       <c r="L2">
-        <v>4717.4</v>
+        <v>32582.2</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="N2">
-        <v>9.3376</v>
+        <v>12.6016</v>
       </c>
       <c r="O2">
-        <v>0.1452</v>
+        <v>0.07719999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -10038,40 +10039,40 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>163140.28</v>
+        <v>137783.08</v>
       </c>
       <c r="E3">
         <v>100</v>
       </c>
       <c r="F3">
-        <v>59.7024</v>
+        <v>59.602</v>
       </c>
       <c r="G3">
-        <v>326.7244</v>
+        <v>275.9408</v>
       </c>
       <c r="H3">
-        <v>0.2276</v>
+        <v>0.2616</v>
       </c>
       <c r="I3">
-        <v>2732.9712</v>
+        <v>2311.7104</v>
       </c>
       <c r="J3">
-        <v>5.4732</v>
+        <v>4.63</v>
       </c>
       <c r="K3">
-        <v>596.13</v>
+        <v>594.7868</v>
       </c>
       <c r="L3">
-        <v>163140.32</v>
+        <v>137783.08</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>5.119199999999999</v>
+        <v>4.9864</v>
       </c>
       <c r="O3">
-        <v>0.06520000000000001</v>
+        <v>0.0352</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -10083,40 +10084,40 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>176389.36</v>
+        <v>149381.36</v>
       </c>
       <c r="E4">
-        <v>100</v>
+        <v>99.9992</v>
       </c>
       <c r="F4">
-        <v>59.3808</v>
+        <v>59.3956</v>
       </c>
       <c r="G4">
-        <v>2.5232</v>
+        <v>2.1372</v>
       </c>
       <c r="H4">
-        <v>0.2048</v>
+        <v>0.246</v>
       </c>
       <c r="I4">
-        <v>2970.4732</v>
+        <v>2514.7904</v>
       </c>
       <c r="J4">
-        <v>0.0424</v>
+        <v>0.0356</v>
       </c>
       <c r="K4">
-        <v>597.062</v>
+        <v>593.5364</v>
       </c>
       <c r="L4">
-        <v>176389.36</v>
+        <v>149381.36</v>
       </c>
       <c r="M4">
-        <v>0.2</v>
+        <v>1.44</v>
       </c>
       <c r="N4">
-        <v>3.5816</v>
+        <v>5.0076</v>
       </c>
       <c r="O4">
-        <v>0.044</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -10128,40 +10129,40 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>79589.2</v>
+        <v>142610.08</v>
       </c>
       <c r="E5">
         <v>100</v>
       </c>
       <c r="F5">
-        <v>59.4064</v>
+        <v>59.5584</v>
       </c>
       <c r="G5">
-        <v>1.5176</v>
+        <v>2.7196</v>
       </c>
       <c r="H5">
-        <v>0.4444</v>
+        <v>0.2508</v>
       </c>
       <c r="I5">
-        <v>1339.7236</v>
+        <v>2394.4272</v>
       </c>
       <c r="J5">
-        <v>0.0268</v>
+        <v>0.04720000000000001</v>
       </c>
       <c r="K5">
-        <v>596.5836</v>
+        <v>596.0816</v>
       </c>
       <c r="L5">
-        <v>79589.2</v>
+        <v>142610.08</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9172</v>
+        <v>3.3288</v>
       </c>
       <c r="O5">
-        <v>0.1612</v>
+        <v>0.0504</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -10173,40 +10174,40 @@
         <v>3</v>
       </c>
       <c r="D6">
-        <v>56334.76</v>
+        <v>109192.64</v>
       </c>
       <c r="E6">
-        <v>99.26600000000001</v>
+        <v>100</v>
       </c>
       <c r="F6">
-        <v>57.7952</v>
+        <v>59.6836</v>
       </c>
       <c r="G6">
-        <v>0.9231999999999999</v>
+        <v>1.7692</v>
       </c>
       <c r="H6">
-        <v>0.6552</v>
+        <v>0.326</v>
       </c>
       <c r="I6">
-        <v>959.7832000000001</v>
+        <v>1829.5128</v>
       </c>
       <c r="J6">
-        <v>0.0136</v>
+        <v>0.03</v>
       </c>
       <c r="K6">
-        <v>593.398</v>
+        <v>595.924</v>
       </c>
       <c r="L6">
-        <v>56334.84</v>
+        <v>109192.64</v>
       </c>
       <c r="M6">
-        <v>72.92</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.282</v>
+        <v>1.038</v>
       </c>
       <c r="O6">
-        <v>0.0536</v>
+        <v>0.0288</v>
       </c>
     </row>
   </sheetData>
@@ -10226,10 +10227,12 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="4" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" customWidth="1"/>
     <col min="10" max="10" width="24.7109375" customWidth="1"/>
@@ -10289,40 +10292,40 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>96034.2</v>
+        <v>114309.864</v>
       </c>
       <c r="D2">
-        <v>99.8532</v>
+        <v>99.99983999999999</v>
       </c>
       <c r="E2">
-        <v>59.14624</v>
+        <v>59.60048</v>
       </c>
       <c r="F2">
-        <v>229.45848</v>
+        <v>414.9568</v>
       </c>
       <c r="G2">
-        <v>1.70168</v>
+        <v>0.44592</v>
       </c>
       <c r="H2">
-        <v>1616.46064</v>
+        <v>1919.10184</v>
       </c>
       <c r="I2">
-        <v>3.85504</v>
+        <v>6.94504</v>
       </c>
       <c r="J2">
-        <v>587.59496</v>
+        <v>592.85688</v>
       </c>
       <c r="K2">
-        <v>96034.224</v>
+        <v>114309.872</v>
       </c>
       <c r="L2">
-        <v>14.624</v>
+        <v>0.296</v>
       </c>
       <c r="M2">
-        <v>4.04752</v>
+        <v>5.392480000000001</v>
       </c>
       <c r="N2">
-        <v>0.09384000000000001</v>
+        <v>0.04032</v>
       </c>
     </row>
   </sheetData>
